--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20817" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20817" uniqueCount="1177">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T18:02:15-03:00</t>
+    <t>2025-09-30T00:48:00-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2961,7 +2961,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}tramo-fonasa:Si tipo(type) es (01)Fonasa, se debe definir el tramo(class). If type.coding.code = 01 class SHALL be present {type.code = '01' and class.exists() and (class.value = 'A' or class.value = 'B' or class.value = 'C' or class.value = 'D')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}tramo-fonasa:Si tipo(type) es (01)Fonasa, se debe definir el tramo(class). If type.coding.code = 01 class SHALL be present {(type.code = '01' and class.exists() and (class.value = 'A' or class.value = 'B' or class.value = 'C' or class.value = 'D'))}</t>
   </si>
   <si>
     <t>Coverage.id</t>
@@ -3451,10 +3451,7 @@
     <t>Coverage.class.value</t>
   </si>
   <si>
-    <t>Tramo FONASA</t>
-  </si>
-  <si>
-    <t>Tramo FONASA(A,B,C,D)</t>
+    <t>Tramo FONASA o Nombre Isapre</t>
   </si>
   <si>
     <t>For example, the Group or Plan number.</t>
@@ -3466,10 +3463,10 @@
     <t>Coverage.class.name</t>
   </si>
   <si>
-    <t>Descripción: Fonasa Tramo A</t>
-  </si>
-  <si>
-    <t>Descripción completa del valor, Ej: Fonasa Tramo A</t>
+    <t>Descripción: Fonasa Tramo A o Isapre Los Palermos</t>
+  </si>
+  <si>
+    <t>Descripción completa del valor, Ej: Fonasa Tramo A, Isapre Los Palermos</t>
   </si>
   <si>
     <t>Used to provide a meaningful description in correspondence to the patient.</t>
@@ -64685,7 +64682,7 @@
       </c>
       <c r="F576" s="2"/>
       <c r="G576" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H576" t="s" s="2">
         <v>74</v>
@@ -64788,7 +64785,7 @@
       </c>
       <c r="F577" s="2"/>
       <c r="G577" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H577" t="s" s="2">
         <v>80</v>
@@ -68500,13 +68497,13 @@
         <v>1113</v>
       </c>
       <c r="N612" t="s" s="2">
+        <v>1113</v>
+      </c>
+      <c r="O612" t="s" s="2">
         <v>1114</v>
       </c>
-      <c r="O612" t="s" s="2">
+      <c r="P612" t="s" s="2">
         <v>1115</v>
-      </c>
-      <c r="P612" t="s" s="2">
-        <v>1116</v>
       </c>
       <c r="Q612" t="s" s="2">
         <v>21</v>
@@ -68575,10 +68572,10 @@
         <v>947</v>
       </c>
       <c r="B613" t="s" s="2">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C613" t="s" s="2">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D613" s="2"/>
       <c r="E613" t="s" s="2">
@@ -68604,14 +68601,14 @@
         <v>138</v>
       </c>
       <c r="M613" t="s" s="2">
+        <v>1117</v>
+      </c>
+      <c r="N613" t="s" s="2">
         <v>1118</v>
-      </c>
-      <c r="N613" t="s" s="2">
-        <v>1119</v>
       </c>
       <c r="O613" s="2"/>
       <c r="P613" t="s" s="2">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="Q613" t="s" s="2">
         <v>21</v>
@@ -68660,7 +68657,7 @@
         <v>21</v>
       </c>
       <c r="AG613" t="s" s="2">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AH613" t="s" s="2">
         <v>73</v>
@@ -68680,10 +68677,10 @@
         <v>947</v>
       </c>
       <c r="B614" t="s" s="2">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C614" t="s" s="2">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D614" s="2"/>
       <c r="E614" t="s" s="2">
@@ -68706,17 +68703,17 @@
         <v>81</v>
       </c>
       <c r="L614" t="s" s="2">
+        <v>1121</v>
+      </c>
+      <c r="M614" t="s" s="2">
         <v>1122</v>
       </c>
-      <c r="M614" t="s" s="2">
+      <c r="N614" t="s" s="2">
         <v>1123</v>
-      </c>
-      <c r="N614" t="s" s="2">
-        <v>1124</v>
       </c>
       <c r="O614" s="2"/>
       <c r="P614" t="s" s="2">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="Q614" t="s" s="2">
         <v>21</v>
@@ -68765,7 +68762,7 @@
         <v>21</v>
       </c>
       <c r="AG614" t="s" s="2">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AH614" t="s" s="2">
         <v>73</v>
@@ -68785,10 +68782,10 @@
         <v>947</v>
       </c>
       <c r="B615" t="s" s="2">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C615" t="s" s="2">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D615" s="2"/>
       <c r="E615" t="s" s="2">
@@ -68814,14 +68811,14 @@
         <v>138</v>
       </c>
       <c r="M615" t="s" s="2">
+        <v>1126</v>
+      </c>
+      <c r="N615" t="s" s="2">
         <v>1127</v>
-      </c>
-      <c r="N615" t="s" s="2">
-        <v>1128</v>
       </c>
       <c r="O615" s="2"/>
       <c r="P615" t="s" s="2">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="Q615" t="s" s="2">
         <v>21</v>
@@ -68870,7 +68867,7 @@
         <v>21</v>
       </c>
       <c r="AG615" t="s" s="2">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AH615" t="s" s="2">
         <v>73</v>
@@ -68890,14 +68887,14 @@
         <v>947</v>
       </c>
       <c r="B616" t="s" s="2">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C616" t="s" s="2">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" t="s" s="2">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F616" s="2"/>
       <c r="G616" t="s" s="2">
@@ -68919,16 +68916,16 @@
         <v>133</v>
       </c>
       <c r="M616" t="s" s="2">
+        <v>1131</v>
+      </c>
+      <c r="N616" t="s" s="2">
         <v>1132</v>
       </c>
-      <c r="N616" t="s" s="2">
+      <c r="O616" t="s" s="2">
         <v>1133</v>
       </c>
-      <c r="O616" t="s" s="2">
+      <c r="P616" t="s" s="2">
         <v>1134</v>
-      </c>
-      <c r="P616" t="s" s="2">
-        <v>1135</v>
       </c>
       <c r="Q616" t="s" s="2">
         <v>21</v>
@@ -68977,7 +68974,7 @@
         <v>21</v>
       </c>
       <c r="AG616" t="s" s="2">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AH616" t="s" s="2">
         <v>73</v>
@@ -68997,10 +68994,10 @@
         <v>947</v>
       </c>
       <c r="B617" t="s" s="2">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C617" t="s" s="2">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D617" s="2"/>
       <c r="E617" t="s" s="2">
@@ -69100,10 +69097,10 @@
         <v>947</v>
       </c>
       <c r="B618" t="s" s="2">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C618" t="s" s="2">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D618" s="2"/>
       <c r="E618" t="s" s="2">
@@ -69205,10 +69202,10 @@
         <v>947</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C619" t="s" s="2">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" t="s" s="2">
@@ -69312,10 +69309,10 @@
         <v>947</v>
       </c>
       <c r="B620" t="s" s="2">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C620" t="s" s="2">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D620" s="2"/>
       <c r="E620" t="s" s="2">
@@ -69341,16 +69338,16 @@
         <v>907</v>
       </c>
       <c r="M620" t="s" s="2">
+        <v>1139</v>
+      </c>
+      <c r="N620" t="s" s="2">
         <v>1140</v>
       </c>
-      <c r="N620" t="s" s="2">
+      <c r="O620" t="s" s="2">
         <v>1141</v>
       </c>
-      <c r="O620" t="s" s="2">
+      <c r="P620" t="s" s="2">
         <v>1142</v>
-      </c>
-      <c r="P620" t="s" s="2">
-        <v>1143</v>
       </c>
       <c r="Q620" t="s" s="2">
         <v>21</v>
@@ -69378,11 +69375,11 @@
         <v>789</v>
       </c>
       <c r="Z620" t="s" s="2">
+        <v>1143</v>
+      </c>
+      <c r="AA620" t="s" s="2">
         <v>1144</v>
       </c>
-      <c r="AA620" t="s" s="2">
-        <v>1145</v>
-      </c>
       <c r="AB620" t="s" s="2">
         <v>21</v>
       </c>
@@ -69399,7 +69396,7 @@
         <v>21</v>
       </c>
       <c r="AG620" t="s" s="2">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="AH620" t="s" s="2">
         <v>73</v>
@@ -69419,10 +69416,10 @@
         <v>947</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C621" t="s" s="2">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D621" s="2"/>
       <c r="E621" t="s" s="2">
@@ -69445,19 +69442,19 @@
         <v>81</v>
       </c>
       <c r="L621" t="s" s="2">
+        <v>1146</v>
+      </c>
+      <c r="M621" t="s" s="2">
         <v>1147</v>
       </c>
-      <c r="M621" t="s" s="2">
+      <c r="N621" t="s" s="2">
         <v>1148</v>
       </c>
-      <c r="N621" t="s" s="2">
+      <c r="O621" t="s" s="2">
         <v>1149</v>
       </c>
-      <c r="O621" t="s" s="2">
+      <c r="P621" t="s" s="2">
         <v>1150</v>
-      </c>
-      <c r="P621" t="s" s="2">
-        <v>1151</v>
       </c>
       <c r="Q621" t="s" s="2">
         <v>21</v>
@@ -69506,7 +69503,7 @@
         <v>21</v>
       </c>
       <c r="AG621" t="s" s="2">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AH621" t="s" s="2">
         <v>80</v>
@@ -69526,10 +69523,10 @@
         <v>947</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C622" t="s" s="2">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D622" s="2"/>
       <c r="E622" t="s" s="2">
@@ -69555,14 +69552,14 @@
         <v>133</v>
       </c>
       <c r="M622" t="s" s="2">
+        <v>1152</v>
+      </c>
+      <c r="N622" t="s" s="2">
         <v>1153</v>
-      </c>
-      <c r="N622" t="s" s="2">
-        <v>1154</v>
       </c>
       <c r="O622" s="2"/>
       <c r="P622" t="s" s="2">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="Q622" t="s" s="2">
         <v>21</v>
@@ -69611,7 +69608,7 @@
         <v>21</v>
       </c>
       <c r="AG622" t="s" s="2">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="AH622" t="s" s="2">
         <v>73</v>
@@ -69631,10 +69628,10 @@
         <v>947</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C623" t="s" s="2">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" t="s" s="2">
@@ -69734,10 +69731,10 @@
         <v>947</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C624" t="s" s="2">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" t="s" s="2">
@@ -69839,10 +69836,10 @@
         <v>947</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D625" s="2"/>
       <c r="E625" t="s" s="2">
@@ -69946,10 +69943,10 @@
         <v>947</v>
       </c>
       <c r="B626" t="s" s="2">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C626" t="s" s="2">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D626" s="2"/>
       <c r="E626" t="s" s="2">
@@ -69975,14 +69972,14 @@
         <v>907</v>
       </c>
       <c r="M626" t="s" s="2">
+        <v>1158</v>
+      </c>
+      <c r="N626" t="s" s="2">
         <v>1159</v>
-      </c>
-      <c r="N626" t="s" s="2">
-        <v>1160</v>
       </c>
       <c r="O626" s="2"/>
       <c r="P626" t="s" s="2">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="Q626" t="s" s="2">
         <v>21</v>
@@ -70010,11 +70007,11 @@
         <v>797</v>
       </c>
       <c r="Z626" t="s" s="2">
+        <v>1161</v>
+      </c>
+      <c r="AA626" t="s" s="2">
         <v>1162</v>
       </c>
-      <c r="AA626" t="s" s="2">
-        <v>1163</v>
-      </c>
       <c r="AB626" t="s" s="2">
         <v>21</v>
       </c>
@@ -70031,7 +70028,7 @@
         <v>21</v>
       </c>
       <c r="AG626" t="s" s="2">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="AH626" t="s" s="2">
         <v>80</v>
@@ -70051,10 +70048,10 @@
         <v>947</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C627" t="s" s="2">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" t="s" s="2">
@@ -70080,14 +70077,14 @@
         <v>1062</v>
       </c>
       <c r="M627" t="s" s="2">
+        <v>1164</v>
+      </c>
+      <c r="N627" t="s" s="2">
         <v>1165</v>
-      </c>
-      <c r="N627" t="s" s="2">
-        <v>1166</v>
       </c>
       <c r="O627" s="2"/>
       <c r="P627" t="s" s="2">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="Q627" t="s" s="2">
         <v>21</v>
@@ -70136,7 +70133,7 @@
         <v>21</v>
       </c>
       <c r="AG627" t="s" s="2">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="AH627" t="s" s="2">
         <v>73</v>
@@ -70156,10 +70153,10 @@
         <v>947</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C628" t="s" s="2">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" t="s" s="2">
@@ -70185,16 +70182,16 @@
         <v>750</v>
       </c>
       <c r="M628" t="s" s="2">
+        <v>1168</v>
+      </c>
+      <c r="N628" t="s" s="2">
         <v>1169</v>
       </c>
-      <c r="N628" t="s" s="2">
+      <c r="O628" t="s" s="2">
         <v>1170</v>
       </c>
-      <c r="O628" t="s" s="2">
+      <c r="P628" t="s" s="2">
         <v>1171</v>
-      </c>
-      <c r="P628" t="s" s="2">
-        <v>1172</v>
       </c>
       <c r="Q628" t="s" s="2">
         <v>21</v>
@@ -70243,7 +70240,7 @@
         <v>21</v>
       </c>
       <c r="AG628" t="s" s="2">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AH628" t="s" s="2">
         <v>73</v>
@@ -70263,10 +70260,10 @@
         <v>947</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C629" t="s" s="2">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" t="s" s="2">
@@ -70289,17 +70286,17 @@
         <v>21</v>
       </c>
       <c r="L629" t="s" s="2">
+        <v>1173</v>
+      </c>
+      <c r="M629" t="s" s="2">
         <v>1174</v>
       </c>
-      <c r="M629" t="s" s="2">
+      <c r="N629" t="s" s="2">
         <v>1175</v>
-      </c>
-      <c r="N629" t="s" s="2">
-        <v>1176</v>
       </c>
       <c r="O629" s="2"/>
       <c r="P629" t="s" s="2">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="Q629" t="s" s="2">
         <v>21</v>
@@ -70348,7 +70345,7 @@
         <v>21</v>
       </c>
       <c r="AG629" t="s" s="2">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="AH629" t="s" s="2">
         <v>73</v>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T00:48:00-03:00</t>
+    <t>2025-10-01T13:03:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20817" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21018" uniqueCount="1183">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T13:03:17-03:00</t>
+    <t>2025-10-07T23:46:48-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2334,6 +2334,28 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
+    <t>ExtensionCodeableConceptTipoProfesionalDestino</t>
+  </si>
+  <si>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei-aps-secundario/StructureDefinition/ExtensionCodeableConceptTipoProfesionalDestino</t>
+  </si>
+  <si>
+    <t>TipoProfesionalDestino</t>
+  </si>
+  <si>
+    <t>Extensión para representar opcionalmente el tipo de profesional de destino en el perfil de PractitionerRoleLE.</t>
+  </si>
+  <si>
+    <t>element:https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerRoleLE#PractitionerRole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSTituloProfesional</t>
+  </si>
+  <si>
     <t>MessageHeaderTEI</t>
   </si>
   <si>
@@ -2810,10 +2832,6 @@
   </si>
   <si>
     <t>MessageHeader.reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Cause of event</t>
@@ -3778,7 +3796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4326,7 +4344,9 @@
       <c r="A70" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B70" s="2"/>
+      <c r="B70" t="s" s="2">
+        <v>755</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
@@ -4379,7 +4399,7 @@
         <v>22</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="78">
@@ -4407,7 +4427,7 @@
         <v>27</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>28</v>
+        <v>734</v>
       </c>
     </row>
     <row r="82">
@@ -4415,7 +4435,7 @@
         <v>29</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>756</v>
+        <v>735</v>
       </c>
     </row>
     <row r="83">
@@ -4423,7 +4443,7 @@
         <v>31</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>757</v>
+        <v>736</v>
       </c>
     </row>
     <row r="84">
@@ -4443,162 +4463,330 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="1">
+      <c r="A86" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B86" t="s" s="1">
+      <c r="B87" t="s" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>947</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>948</v>
+        <v>760</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>7</v>
+        <v>761</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>947</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="B91" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>760</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>12</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B93" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>949</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B99" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>762</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>950</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>951</v>
+        <v>763</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>34</v>
+        <v>764</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B107" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B128" t="s" s="2">
         <v>36</v>
       </c>
     </row>
@@ -4609,7 +4797,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK629"/>
+  <dimension ref="A1:AK634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4618,7 +4806,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.78515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.5859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="54.859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="47.671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="20.28125" customWidth="true" bestFit="true" hidden="true"/>
@@ -58672,10 +58860,10 @@
         <v>753</v>
       </c>
       <c r="B519" t="s" s="2">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="C519" t="s" s="2">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="D519" s="2"/>
       <c r="E519" t="s" s="2">
@@ -58701,10 +58889,10 @@
         <v>75</v>
       </c>
       <c r="M519" t="s" s="2">
-        <v>376</v>
+        <v>755</v>
       </c>
       <c r="N519" t="s" s="2">
-        <v>377</v>
+        <v>756</v>
       </c>
       <c r="O519" s="2"/>
       <c r="P519" s="2"/>
@@ -58755,7 +58943,7 @@
         <v>21</v>
       </c>
       <c r="AG519" t="s" s="2">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="AH519" t="s" s="2">
         <v>73</v>
@@ -58764,10 +58952,10 @@
         <v>74</v>
       </c>
       <c r="AJ519" t="s" s="2">
-        <v>21</v>
+        <v>739</v>
       </c>
       <c r="AK519" t="s" s="2">
-        <v>758</v>
+        <v>149</v>
       </c>
     </row>
     <row r="520">
@@ -58775,10 +58963,10 @@
         <v>753</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="C520" t="s" s="2">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="D520" s="2"/>
       <c r="E520" t="s" s="2">
@@ -58792,26 +58980,24 @@
         <v>80</v>
       </c>
       <c r="I520" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="J520" t="s" s="2">
         <v>21</v>
       </c>
       <c r="K520" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L520" t="s" s="2">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="M520" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="N520" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="O520" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O520" s="2"/>
       <c r="P520" s="2"/>
       <c r="Q520" t="s" s="2">
         <v>21</v>
@@ -58860,7 +59046,7 @@
         <v>21</v>
       </c>
       <c r="AG520" t="s" s="2">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="AH520" t="s" s="2">
         <v>73</v>
@@ -58880,10 +59066,10 @@
         <v>753</v>
       </c>
       <c r="B521" t="s" s="2">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="C521" t="s" s="2">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="D521" s="2"/>
       <c r="E521" t="s" s="2">
@@ -58894,7 +59080,7 @@
         <v>73</v>
       </c>
       <c r="H521" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I521" t="s" s="2">
         <v>21</v>
@@ -58903,16 +59089,16 @@
         <v>21</v>
       </c>
       <c r="K521" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L521" t="s" s="2">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="M521" t="s" s="2">
-        <v>89</v>
+        <v>735</v>
       </c>
       <c r="N521" t="s" s="2">
-        <v>90</v>
+        <v>742</v>
       </c>
       <c r="O521" s="2"/>
       <c r="P521" s="2"/>
@@ -58951,31 +59137,31 @@
         <v>21</v>
       </c>
       <c r="AC521" t="s" s="2">
-        <v>21</v>
+        <v>743</v>
       </c>
       <c r="AD521" t="s" s="2">
-        <v>21</v>
+        <v>744</v>
       </c>
       <c r="AE521" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AF521" t="s" s="2">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="AG521" t="s" s="2">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="AH521" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI521" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ521" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK521" t="s" s="2">
-        <v>92</v>
+        <v>149</v>
       </c>
     </row>
     <row r="522">
@@ -58983,10 +59169,10 @@
         <v>753</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="C522" t="s" s="2">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="D522" s="2"/>
       <c r="E522" t="s" s="2">
@@ -58994,7 +59180,7 @@
       </c>
       <c r="F522" s="2"/>
       <c r="G522" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H522" t="s" s="2">
         <v>80</v>
@@ -59009,22 +59195,24 @@
         <v>21</v>
       </c>
       <c r="L522" t="s" s="2">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="M522" t="s" s="2">
-        <v>139</v>
+        <v>746</v>
       </c>
       <c r="N522" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O522" s="2"/>
+        <v>747</v>
+      </c>
+      <c r="O522" t="s" s="2">
+        <v>748</v>
+      </c>
       <c r="P522" s="2"/>
       <c r="Q522" t="s" s="2">
         <v>21</v>
       </c>
       <c r="R522" s="2"/>
       <c r="S522" t="s" s="2">
-        <v>21</v>
+        <v>754</v>
       </c>
       <c r="T522" t="s" s="2">
         <v>21</v>
@@ -59066,10 +59254,10 @@
         <v>21</v>
       </c>
       <c r="AG522" t="s" s="2">
-        <v>141</v>
+        <v>745</v>
       </c>
       <c r="AH522" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI522" t="s" s="2">
         <v>80</v>
@@ -59086,21 +59274,21 @@
         <v>753</v>
       </c>
       <c r="B523" t="s" s="2">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="C523" t="s" s="2">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="D523" s="2"/>
       <c r="E523" t="s" s="2">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="F523" s="2"/>
       <c r="G523" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H523" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I523" t="s" s="2">
         <v>21</v>
@@ -59112,17 +59300,15 @@
         <v>21</v>
       </c>
       <c r="L523" t="s" s="2">
-        <v>144</v>
+        <v>758</v>
       </c>
       <c r="M523" t="s" s="2">
-        <v>145</v>
+        <v>751</v>
       </c>
       <c r="N523" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O523" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="O523" s="2"/>
       <c r="P523" s="2"/>
       <c r="Q523" t="s" s="2">
         <v>21</v>
@@ -59147,48 +59333,46 @@
         <v>21</v>
       </c>
       <c r="Y523" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="Z523" t="s" s="2">
-        <v>21</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="Z523" s="2"/>
       <c r="AA523" t="s" s="2">
-        <v>21</v>
+        <v>759</v>
       </c>
       <c r="AB523" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AC523" t="s" s="2">
-        <v>743</v>
+        <v>21</v>
       </c>
       <c r="AD523" t="s" s="2">
-        <v>744</v>
+        <v>21</v>
       </c>
       <c r="AE523" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AF523" t="s" s="2">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="AG523" t="s" s="2">
-        <v>148</v>
+        <v>749</v>
       </c>
       <c r="AH523" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI523" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ523" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK523" t="s" s="2">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B524" t="s" s="2">
         <v>763</v>
@@ -59205,7 +59389,7 @@
         <v>73</v>
       </c>
       <c r="H524" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I524" t="s" s="2">
         <v>21</v>
@@ -59214,20 +59398,18 @@
         <v>21</v>
       </c>
       <c r="K524" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L524" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M524" t="s" s="2">
-        <v>764</v>
+        <v>376</v>
       </c>
       <c r="N524" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="O524" t="s" s="2">
-        <v>766</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="O524" s="2"/>
       <c r="P524" s="2"/>
       <c r="Q524" t="s" s="2">
         <v>21</v>
@@ -59276,30 +59458,30 @@
         <v>21</v>
       </c>
       <c r="AG524" t="s" s="2">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="AH524" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI524" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ524" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK524" t="s" s="2">
-        <v>92</v>
+        <v>765</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B525" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C525" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D525" s="2"/>
       <c r="E525" t="s" s="2">
@@ -59307,7 +59489,7 @@
       </c>
       <c r="F525" s="2"/>
       <c r="G525" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H525" t="s" s="2">
         <v>80</v>
@@ -59322,16 +59504,16 @@
         <v>81</v>
       </c>
       <c r="L525" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="M525" t="s" s="2">
-        <v>769</v>
+        <v>83</v>
       </c>
       <c r="N525" t="s" s="2">
-        <v>770</v>
+        <v>84</v>
       </c>
       <c r="O525" t="s" s="2">
-        <v>771</v>
+        <v>85</v>
       </c>
       <c r="P525" s="2"/>
       <c r="Q525" t="s" s="2">
@@ -59381,7 +59563,7 @@
         <v>21</v>
       </c>
       <c r="AG525" t="s" s="2">
-        <v>772</v>
+        <v>86</v>
       </c>
       <c r="AH525" t="s" s="2">
         <v>73</v>
@@ -59393,18 +59575,18 @@
         <v>21</v>
       </c>
       <c r="AK525" t="s" s="2">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="C526" t="s" s="2">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="D526" s="2"/>
       <c r="E526" t="s" s="2">
@@ -59427,17 +59609,15 @@
         <v>81</v>
       </c>
       <c r="L526" t="s" s="2">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M526" t="s" s="2">
-        <v>774</v>
+        <v>89</v>
       </c>
       <c r="N526" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="O526" t="s" s="2">
-        <v>776</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="O526" s="2"/>
       <c r="P526" s="2"/>
       <c r="Q526" t="s" s="2">
         <v>21</v>
@@ -59486,7 +59666,7 @@
         <v>21</v>
       </c>
       <c r="AG526" t="s" s="2">
-        <v>777</v>
+        <v>91</v>
       </c>
       <c r="AH526" t="s" s="2">
         <v>73</v>
@@ -59503,13 +59683,13 @@
     </row>
     <row r="527">
       <c r="A527" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="C527" t="s" s="2">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="D527" s="2"/>
       <c r="E527" t="s" s="2">
@@ -59520,7 +59700,7 @@
         <v>73</v>
       </c>
       <c r="H527" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I527" t="s" s="2">
         <v>21</v>
@@ -59529,20 +59709,18 @@
         <v>21</v>
       </c>
       <c r="K527" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L527" t="s" s="2">
-        <v>779</v>
+        <v>138</v>
       </c>
       <c r="M527" t="s" s="2">
-        <v>780</v>
+        <v>139</v>
       </c>
       <c r="N527" t="s" s="2">
-        <v>781</v>
-      </c>
-      <c r="O527" t="s" s="2">
-        <v>782</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O527" s="2"/>
       <c r="P527" s="2"/>
       <c r="Q527" t="s" s="2">
         <v>21</v>
@@ -59591,34 +59769,34 @@
         <v>21</v>
       </c>
       <c r="AG527" t="s" s="2">
-        <v>783</v>
+        <v>141</v>
       </c>
       <c r="AH527" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI527" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ527" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK527" t="s" s="2">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="C528" t="s" s="2">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="D528" s="2"/>
       <c r="E528" t="s" s="2">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="F528" s="2"/>
       <c r="G528" t="s" s="2">
@@ -59634,19 +59812,19 @@
         <v>21</v>
       </c>
       <c r="K528" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L528" t="s" s="2">
-        <v>785</v>
+        <v>144</v>
       </c>
       <c r="M528" t="s" s="2">
-        <v>786</v>
+        <v>145</v>
       </c>
       <c r="N528" t="s" s="2">
-        <v>787</v>
+        <v>146</v>
       </c>
       <c r="O528" t="s" s="2">
-        <v>788</v>
+        <v>147</v>
       </c>
       <c r="P528" s="2"/>
       <c r="Q528" t="s" s="2">
@@ -59672,31 +59850,31 @@
         <v>21</v>
       </c>
       <c r="Y528" t="s" s="2">
-        <v>789</v>
+        <v>21</v>
       </c>
       <c r="Z528" t="s" s="2">
-        <v>790</v>
+        <v>21</v>
       </c>
       <c r="AA528" t="s" s="2">
-        <v>791</v>
+        <v>21</v>
       </c>
       <c r="AB528" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AC528" t="s" s="2">
-        <v>21</v>
+        <v>743</v>
       </c>
       <c r="AD528" t="s" s="2">
-        <v>21</v>
+        <v>744</v>
       </c>
       <c r="AE528" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AF528" t="s" s="2">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="AG528" t="s" s="2">
-        <v>792</v>
+        <v>148</v>
       </c>
       <c r="AH528" t="s" s="2">
         <v>73</v>
@@ -59708,18 +59886,18 @@
         <v>21</v>
       </c>
       <c r="AK528" t="s" s="2">
-        <v>92</v>
+        <v>149</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>793</v>
+        <v>770</v>
       </c>
       <c r="C529" t="s" s="2">
-        <v>793</v>
+        <v>770</v>
       </c>
       <c r="D529" s="2"/>
       <c r="E529" t="s" s="2">
@@ -59730,7 +59908,7 @@
         <v>73</v>
       </c>
       <c r="H529" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I529" t="s" s="2">
         <v>21</v>
@@ -59742,16 +59920,16 @@
         <v>81</v>
       </c>
       <c r="L529" t="s" s="2">
-        <v>785</v>
+        <v>82</v>
       </c>
       <c r="M529" t="s" s="2">
-        <v>794</v>
+        <v>771</v>
       </c>
       <c r="N529" t="s" s="2">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="O529" t="s" s="2">
-        <v>796</v>
+        <v>773</v>
       </c>
       <c r="P529" s="2"/>
       <c r="Q529" t="s" s="2">
@@ -59777,13 +59955,13 @@
         <v>21</v>
       </c>
       <c r="Y529" t="s" s="2">
-        <v>797</v>
+        <v>21</v>
       </c>
       <c r="Z529" t="s" s="2">
-        <v>798</v>
+        <v>21</v>
       </c>
       <c r="AA529" t="s" s="2">
-        <v>799</v>
+        <v>21</v>
       </c>
       <c r="AB529" t="s" s="2">
         <v>21</v>
@@ -59801,13 +59979,13 @@
         <v>21</v>
       </c>
       <c r="AG529" t="s" s="2">
-        <v>800</v>
+        <v>774</v>
       </c>
       <c r="AH529" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI529" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ529" t="s" s="2">
         <v>21</v>
@@ -59818,13 +59996,13 @@
     </row>
     <row r="530">
       <c r="A530" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="C530" t="s" s="2">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D530" s="2"/>
       <c r="E530" t="s" s="2">
@@ -59832,31 +60010,31 @@
       </c>
       <c r="F530" s="2"/>
       <c r="G530" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H530" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I530" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="J530" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K530" t="s" s="2">
         <v>81</v>
       </c>
       <c r="L530" t="s" s="2">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="M530" t="s" s="2">
-        <v>95</v>
+        <v>776</v>
       </c>
       <c r="N530" t="s" s="2">
-        <v>96</v>
+        <v>777</v>
       </c>
       <c r="O530" t="s" s="2">
-        <v>97</v>
+        <v>778</v>
       </c>
       <c r="P530" s="2"/>
       <c r="Q530" t="s" s="2">
@@ -59906,7 +60084,7 @@
         <v>21</v>
       </c>
       <c r="AG530" t="s" s="2">
-        <v>98</v>
+        <v>779</v>
       </c>
       <c r="AH530" t="s" s="2">
         <v>73</v>
@@ -59923,13 +60101,13 @@
     </row>
     <row r="531">
       <c r="A531" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>802</v>
+        <v>780</v>
       </c>
       <c r="C531" t="s" s="2">
-        <v>802</v>
+        <v>780</v>
       </c>
       <c r="D531" s="2"/>
       <c r="E531" t="s" s="2">
@@ -59949,19 +60127,19 @@
         <v>21</v>
       </c>
       <c r="K531" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L531" t="s" s="2">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M531" t="s" s="2">
-        <v>101</v>
+        <v>781</v>
       </c>
       <c r="N531" t="s" s="2">
-        <v>102</v>
+        <v>782</v>
       </c>
       <c r="O531" t="s" s="2">
-        <v>103</v>
+        <v>783</v>
       </c>
       <c r="P531" s="2"/>
       <c r="Q531" t="s" s="2">
@@ -59987,13 +60165,13 @@
         <v>21</v>
       </c>
       <c r="Y531" t="s" s="2">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="Z531" t="s" s="2">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="AA531" t="s" s="2">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="AB531" t="s" s="2">
         <v>21</v>
@@ -60011,7 +60189,7 @@
         <v>21</v>
       </c>
       <c r="AG531" t="s" s="2">
-        <v>107</v>
+        <v>784</v>
       </c>
       <c r="AH531" t="s" s="2">
         <v>73</v>
@@ -60028,24 +60206,24 @@
     </row>
     <row r="532">
       <c r="A532" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>803</v>
+        <v>785</v>
       </c>
       <c r="C532" t="s" s="2">
-        <v>803</v>
+        <v>785</v>
       </c>
       <c r="D532" s="2"/>
       <c r="E532" t="s" s="2">
-        <v>804</v>
+        <v>21</v>
       </c>
       <c r="F532" s="2"/>
       <c r="G532" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H532" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I532" t="s" s="2">
         <v>21</v>
@@ -60054,19 +60232,19 @@
         <v>21</v>
       </c>
       <c r="K532" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L532" t="s" s="2">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="M532" t="s" s="2">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="N532" t="s" s="2">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="O532" t="s" s="2">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="P532" s="2"/>
       <c r="Q532" t="s" s="2">
@@ -60116,13 +60294,13 @@
         <v>21</v>
       </c>
       <c r="AG532" t="s" s="2">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="AH532" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI532" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ532" t="s" s="2">
         <v>21</v>
@@ -60133,17 +60311,17 @@
     </row>
     <row r="533">
       <c r="A533" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="C533" t="s" s="2">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="D533" s="2"/>
       <c r="E533" t="s" s="2">
-        <v>811</v>
+        <v>21</v>
       </c>
       <c r="F533" s="2"/>
       <c r="G533" t="s" s="2">
@@ -60159,19 +60337,19 @@
         <v>21</v>
       </c>
       <c r="K533" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L533" t="s" s="2">
-        <v>180</v>
+        <v>792</v>
       </c>
       <c r="M533" t="s" s="2">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="N533" t="s" s="2">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="O533" t="s" s="2">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="P533" s="2"/>
       <c r="Q533" t="s" s="2">
@@ -60197,13 +60375,13 @@
         <v>21</v>
       </c>
       <c r="Y533" t="s" s="2">
-        <v>21</v>
+        <v>796</v>
       </c>
       <c r="Z533" t="s" s="2">
-        <v>21</v>
+        <v>797</v>
       </c>
       <c r="AA533" t="s" s="2">
-        <v>21</v>
+        <v>798</v>
       </c>
       <c r="AB533" t="s" s="2">
         <v>21</v>
@@ -60221,7 +60399,7 @@
         <v>21</v>
       </c>
       <c r="AG533" t="s" s="2">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="AH533" t="s" s="2">
         <v>73</v>
@@ -60233,22 +60411,22 @@
         <v>21</v>
       </c>
       <c r="AK533" t="s" s="2">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="C534" t="s" s="2">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="D534" s="2"/>
       <c r="E534" t="s" s="2">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="F534" s="2"/>
       <c r="G534" t="s" s="2">
@@ -60264,19 +60442,19 @@
         <v>21</v>
       </c>
       <c r="K534" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L534" t="s" s="2">
-        <v>144</v>
+        <v>792</v>
       </c>
       <c r="M534" t="s" s="2">
-        <v>145</v>
+        <v>801</v>
       </c>
       <c r="N534" t="s" s="2">
-        <v>817</v>
+        <v>802</v>
       </c>
       <c r="O534" t="s" s="2">
-        <v>147</v>
+        <v>803</v>
       </c>
       <c r="P534" s="2"/>
       <c r="Q534" t="s" s="2">
@@ -60302,13 +60480,13 @@
         <v>21</v>
       </c>
       <c r="Y534" t="s" s="2">
-        <v>21</v>
+        <v>804</v>
       </c>
       <c r="Z534" t="s" s="2">
-        <v>21</v>
+        <v>805</v>
       </c>
       <c r="AA534" t="s" s="2">
-        <v>21</v>
+        <v>806</v>
       </c>
       <c r="AB534" t="s" s="2">
         <v>21</v>
@@ -60326,7 +60504,7 @@
         <v>21</v>
       </c>
       <c r="AG534" t="s" s="2">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="AH534" t="s" s="2">
         <v>73</v>
@@ -60338,29 +60516,29 @@
         <v>21</v>
       </c>
       <c r="AK534" t="s" s="2">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="C535" t="s" s="2">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="D535" s="2"/>
       <c r="E535" t="s" s="2">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="F535" s="2"/>
       <c r="G535" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H535" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I535" t="s" s="2">
         <v>21</v>
@@ -60369,23 +60547,21 @@
         <v>81</v>
       </c>
       <c r="K535" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L535" t="s" s="2">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M535" t="s" s="2">
-        <v>820</v>
+        <v>95</v>
       </c>
       <c r="N535" t="s" s="2">
-        <v>821</v>
+        <v>96</v>
       </c>
       <c r="O535" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="P535" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P535" s="2"/>
       <c r="Q535" t="s" s="2">
         <v>21</v>
       </c>
@@ -60433,30 +60609,30 @@
         <v>21</v>
       </c>
       <c r="AG535" t="s" s="2">
-        <v>822</v>
+        <v>98</v>
       </c>
       <c r="AH535" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI535" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ535" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK535" t="s" s="2">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="C536" t="s" s="2">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="D536" s="2"/>
       <c r="E536" t="s" s="2">
@@ -60464,7 +60640,7 @@
       </c>
       <c r="F536" s="2"/>
       <c r="G536" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H536" t="s" s="2">
         <v>80</v>
@@ -60476,23 +60652,21 @@
         <v>21</v>
       </c>
       <c r="K536" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L536" t="s" s="2">
-        <v>824</v>
+        <v>100</v>
       </c>
       <c r="M536" t="s" s="2">
-        <v>825</v>
+        <v>101</v>
       </c>
       <c r="N536" t="s" s="2">
-        <v>826</v>
+        <v>102</v>
       </c>
       <c r="O536" t="s" s="2">
-        <v>827</v>
-      </c>
-      <c r="P536" t="s" s="2">
-        <v>828</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P536" s="2"/>
       <c r="Q536" t="s" s="2">
         <v>21</v>
       </c>
@@ -60516,32 +60690,34 @@
         <v>21</v>
       </c>
       <c r="Y536" t="s" s="2">
-        <v>797</v>
+        <v>104</v>
       </c>
       <c r="Z536" t="s" s="2">
-        <v>829</v>
+        <v>105</v>
       </c>
       <c r="AA536" t="s" s="2">
-        <v>830</v>
+        <v>106</v>
       </c>
       <c r="AB536" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AC536" t="s" s="2">
-        <v>831</v>
-      </c>
-      <c r="AD536" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="AD536" t="s" s="2">
+        <v>21</v>
+      </c>
       <c r="AE536" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AF536" t="s" s="2">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="AG536" t="s" s="2">
-        <v>823</v>
+        <v>107</v>
       </c>
       <c r="AH536" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AI536" t="s" s="2">
         <v>80</v>
@@ -60555,19 +60731,17 @@
     </row>
     <row r="537">
       <c r="A537" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>832</v>
+        <v>810</v>
       </c>
       <c r="C537" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="D537" t="s" s="2">
-        <v>833</v>
-      </c>
+        <v>810</v>
+      </c>
+      <c r="D537" s="2"/>
       <c r="E537" t="s" s="2">
-        <v>21</v>
+        <v>811</v>
       </c>
       <c r="F537" s="2"/>
       <c r="G537" t="s" s="2">
@@ -60577,29 +60751,27 @@
         <v>80</v>
       </c>
       <c r="I537" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="J537" t="s" s="2">
         <v>21</v>
       </c>
       <c r="K537" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L537" t="s" s="2">
-        <v>785</v>
+        <v>812</v>
       </c>
       <c r="M537" t="s" s="2">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="N537" t="s" s="2">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="O537" t="s" s="2">
-        <v>827</v>
-      </c>
-      <c r="P537" t="s" s="2">
-        <v>828</v>
-      </c>
+        <v>815</v>
+      </c>
+      <c r="P537" s="2"/>
       <c r="Q537" t="s" s="2">
         <v>21</v>
       </c>
@@ -60623,11 +60795,13 @@
         <v>21</v>
       </c>
       <c r="Y537" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Z537" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="Z537" t="s" s="2">
+        <v>21</v>
+      </c>
       <c r="AA537" t="s" s="2">
-        <v>834</v>
+        <v>21</v>
       </c>
       <c r="AB537" t="s" s="2">
         <v>21</v>
@@ -60645,10 +60819,10 @@
         <v>21</v>
       </c>
       <c r="AG537" t="s" s="2">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="AH537" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AI537" t="s" s="2">
         <v>80</v>
@@ -60662,17 +60836,17 @@
     </row>
     <row r="538">
       <c r="A538" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>835</v>
+        <v>817</v>
       </c>
       <c r="C538" t="s" s="2">
-        <v>835</v>
+        <v>817</v>
       </c>
       <c r="D538" s="2"/>
       <c r="E538" t="s" s="2">
-        <v>21</v>
+        <v>818</v>
       </c>
       <c r="F538" s="2"/>
       <c r="G538" t="s" s="2">
@@ -60688,23 +60862,21 @@
         <v>21</v>
       </c>
       <c r="K538" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L538" t="s" s="2">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="M538" t="s" s="2">
-        <v>836</v>
+        <v>819</v>
       </c>
       <c r="N538" t="s" s="2">
-        <v>837</v>
+        <v>820</v>
       </c>
       <c r="O538" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="P538" t="s" s="2">
-        <v>839</v>
-      </c>
+        <v>821</v>
+      </c>
+      <c r="P538" s="2"/>
       <c r="Q538" t="s" s="2">
         <v>21</v>
       </c>
@@ -60752,7 +60924,7 @@
         <v>21</v>
       </c>
       <c r="AG538" t="s" s="2">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="AH538" t="s" s="2">
         <v>73</v>
@@ -60764,29 +60936,29 @@
         <v>21</v>
       </c>
       <c r="AK538" t="s" s="2">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="C539" t="s" s="2">
-        <v>840</v>
+        <v>823</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" t="s" s="2">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="F539" s="2"/>
       <c r="G539" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H539" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I539" t="s" s="2">
         <v>21</v>
@@ -60798,15 +60970,17 @@
         <v>21</v>
       </c>
       <c r="L539" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M539" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="N539" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O539" s="2"/>
+        <v>824</v>
+      </c>
+      <c r="O539" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P539" s="2"/>
       <c r="Q539" t="s" s="2">
         <v>21</v>
@@ -60855,30 +61029,30 @@
         <v>21</v>
       </c>
       <c r="AG539" t="s" s="2">
-        <v>141</v>
+        <v>825</v>
       </c>
       <c r="AH539" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI539" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ539" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK539" t="s" s="2">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="C540" t="s" s="2">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="D540" s="2"/>
       <c r="E540" t="s" s="2">
@@ -60895,7 +61069,7 @@
         <v>21</v>
       </c>
       <c r="J540" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="K540" t="s" s="2">
         <v>21</v>
@@ -60904,15 +61078,17 @@
         <v>144</v>
       </c>
       <c r="M540" t="s" s="2">
-        <v>145</v>
+        <v>827</v>
       </c>
       <c r="N540" t="s" s="2">
-        <v>146</v>
+        <v>828</v>
       </c>
       <c r="O540" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="P540" s="2"/>
+      <c r="P540" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="Q540" t="s" s="2">
         <v>21</v>
       </c>
@@ -60960,7 +61136,7 @@
         <v>21</v>
       </c>
       <c r="AG540" t="s" s="2">
-        <v>148</v>
+        <v>829</v>
       </c>
       <c r="AH540" t="s" s="2">
         <v>73</v>
@@ -60977,48 +61153,48 @@
     </row>
     <row r="541">
       <c r="A541" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B541" t="s" s="2">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="C541" t="s" s="2">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="D541" s="2"/>
       <c r="E541" t="s" s="2">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="F541" s="2"/>
       <c r="G541" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H541" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I541" t="s" s="2">
         <v>21</v>
       </c>
       <c r="J541" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K541" t="s" s="2">
         <v>81</v>
       </c>
       <c r="L541" t="s" s="2">
-        <v>144</v>
+        <v>831</v>
       </c>
       <c r="M541" t="s" s="2">
-        <v>152</v>
+        <v>832</v>
       </c>
       <c r="N541" t="s" s="2">
-        <v>153</v>
+        <v>833</v>
       </c>
       <c r="O541" t="s" s="2">
-        <v>147</v>
+        <v>834</v>
       </c>
       <c r="P541" t="s" s="2">
-        <v>154</v>
+        <v>835</v>
       </c>
       <c r="Q541" t="s" s="2">
         <v>21</v>
@@ -61043,56 +61219,56 @@
         <v>21</v>
       </c>
       <c r="Y541" t="s" s="2">
-        <v>21</v>
+        <v>804</v>
       </c>
       <c r="Z541" t="s" s="2">
-        <v>21</v>
+        <v>836</v>
       </c>
       <c r="AA541" t="s" s="2">
-        <v>21</v>
+        <v>837</v>
       </c>
       <c r="AB541" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AC541" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AD541" t="s" s="2">
-        <v>21</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="AD541" s="2"/>
       <c r="AE541" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AF541" t="s" s="2">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="AG541" t="s" s="2">
-        <v>155</v>
+        <v>830</v>
       </c>
       <c r="AH541" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI541" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ541" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK541" t="s" s="2">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>843</v>
-      </c>
-      <c r="D542" s="2"/>
+        <v>830</v>
+      </c>
+      <c r="D542" t="s" s="2">
+        <v>840</v>
+      </c>
       <c r="E542" t="s" s="2">
         <v>21</v>
       </c>
@@ -61104,7 +61280,7 @@
         <v>80</v>
       </c>
       <c r="I542" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="J542" t="s" s="2">
         <v>21</v>
@@ -61113,17 +61289,19 @@
         <v>81</v>
       </c>
       <c r="L542" t="s" s="2">
-        <v>138</v>
+        <v>792</v>
       </c>
       <c r="M542" t="s" s="2">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="N542" t="s" s="2">
-        <v>845</v>
-      </c>
-      <c r="O542" s="2"/>
+        <v>833</v>
+      </c>
+      <c r="O542" t="s" s="2">
+        <v>834</v>
+      </c>
       <c r="P542" t="s" s="2">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="Q542" t="s" s="2">
         <v>21</v>
@@ -61148,13 +61326,11 @@
         <v>21</v>
       </c>
       <c r="Y542" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="Z542" t="s" s="2">
-        <v>21</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="Z542" s="2"/>
       <c r="AA542" t="s" s="2">
-        <v>21</v>
+        <v>841</v>
       </c>
       <c r="AB542" t="s" s="2">
         <v>21</v>
@@ -61172,10 +61348,10 @@
         <v>21</v>
       </c>
       <c r="AG542" t="s" s="2">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="AH542" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI542" t="s" s="2">
         <v>80</v>
@@ -61189,13 +61365,13 @@
     </row>
     <row r="543">
       <c r="A543" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" t="s" s="2">
@@ -61206,7 +61382,7 @@
         <v>73</v>
       </c>
       <c r="H543" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I543" t="s" s="2">
         <v>21</v>
@@ -61218,17 +61394,19 @@
         <v>81</v>
       </c>
       <c r="L543" t="s" s="2">
-        <v>848</v>
+        <v>133</v>
       </c>
       <c r="M543" t="s" s="2">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="N543" t="s" s="2">
-        <v>850</v>
-      </c>
-      <c r="O543" s="2"/>
+        <v>844</v>
+      </c>
+      <c r="O543" t="s" s="2">
+        <v>845</v>
+      </c>
       <c r="P543" t="s" s="2">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="Q543" t="s" s="2">
         <v>21</v>
@@ -61277,13 +61455,13 @@
         <v>21</v>
       </c>
       <c r="AG543" t="s" s="2">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="AH543" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI543" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ543" t="s" s="2">
         <v>21</v>
@@ -61294,13 +61472,13 @@
     </row>
     <row r="544">
       <c r="A544" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" t="s" s="2">
@@ -61308,7 +61486,7 @@
       </c>
       <c r="F544" s="2"/>
       <c r="G544" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H544" t="s" s="2">
         <v>80</v>
@@ -61320,23 +61498,19 @@
         <v>21</v>
       </c>
       <c r="K544" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L544" t="s" s="2">
-        <v>853</v>
+        <v>138</v>
       </c>
       <c r="M544" t="s" s="2">
-        <v>854</v>
+        <v>139</v>
       </c>
       <c r="N544" t="s" s="2">
-        <v>855</v>
-      </c>
-      <c r="O544" t="s" s="2">
-        <v>856</v>
-      </c>
-      <c r="P544" t="s" s="2">
-        <v>857</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O544" s="2"/>
+      <c r="P544" s="2"/>
       <c r="Q544" t="s" s="2">
         <v>21</v>
       </c>
@@ -61384,10 +61558,10 @@
         <v>21</v>
       </c>
       <c r="AG544" t="s" s="2">
-        <v>852</v>
+        <v>141</v>
       </c>
       <c r="AH544" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AI544" t="s" s="2">
         <v>80</v>
@@ -61396,29 +61570,29 @@
         <v>21</v>
       </c>
       <c r="AK544" t="s" s="2">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" t="s" s="2">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="F545" s="2"/>
       <c r="G545" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H545" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I545" t="s" s="2">
         <v>21</v>
@@ -61427,21 +61601,21 @@
         <v>21</v>
       </c>
       <c r="K545" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L545" t="s" s="2">
-        <v>859</v>
+        <v>144</v>
       </c>
       <c r="M545" t="s" s="2">
-        <v>860</v>
+        <v>145</v>
       </c>
       <c r="N545" t="s" s="2">
-        <v>861</v>
-      </c>
-      <c r="O545" s="2"/>
-      <c r="P545" t="s" s="2">
-        <v>862</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O545" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="P545" s="2"/>
       <c r="Q545" t="s" s="2">
         <v>21</v>
       </c>
@@ -61489,65 +61663,65 @@
         <v>21</v>
       </c>
       <c r="AG545" t="s" s="2">
-        <v>858</v>
+        <v>148</v>
       </c>
       <c r="AH545" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI545" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ545" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK545" t="s" s="2">
-        <v>92</v>
+        <v>149</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="D546" s="2"/>
       <c r="E546" t="s" s="2">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="F546" s="2"/>
       <c r="G546" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H546" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I546" t="s" s="2">
         <v>21</v>
       </c>
       <c r="J546" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="K546" t="s" s="2">
         <v>81</v>
       </c>
       <c r="L546" t="s" s="2">
-        <v>859</v>
+        <v>144</v>
       </c>
       <c r="M546" t="s" s="2">
-        <v>864</v>
+        <v>152</v>
       </c>
       <c r="N546" t="s" s="2">
-        <v>865</v>
+        <v>153</v>
       </c>
       <c r="O546" t="s" s="2">
-        <v>866</v>
+        <v>147</v>
       </c>
       <c r="P546" t="s" s="2">
-        <v>862</v>
+        <v>154</v>
       </c>
       <c r="Q546" t="s" s="2">
         <v>21</v>
@@ -61596,30 +61770,30 @@
         <v>21</v>
       </c>
       <c r="AG546" t="s" s="2">
-        <v>863</v>
+        <v>155</v>
       </c>
       <c r="AH546" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI546" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ546" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK546" t="s" s="2">
-        <v>92</v>
+        <v>149</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>867</v>
+        <v>850</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>867</v>
+        <v>850</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" t="s" s="2">
@@ -61642,19 +61816,17 @@
         <v>81</v>
       </c>
       <c r="L547" t="s" s="2">
-        <v>868</v>
+        <v>138</v>
       </c>
       <c r="M547" t="s" s="2">
-        <v>869</v>
+        <v>851</v>
       </c>
       <c r="N547" t="s" s="2">
-        <v>870</v>
-      </c>
-      <c r="O547" t="s" s="2">
-        <v>871</v>
-      </c>
+        <v>852</v>
+      </c>
+      <c r="O547" s="2"/>
       <c r="P547" t="s" s="2">
-        <v>872</v>
+        <v>853</v>
       </c>
       <c r="Q547" t="s" s="2">
         <v>21</v>
@@ -61703,7 +61875,7 @@
         <v>21</v>
       </c>
       <c r="AG547" t="s" s="2">
-        <v>867</v>
+        <v>850</v>
       </c>
       <c r="AH547" t="s" s="2">
         <v>73</v>
@@ -61720,13 +61892,13 @@
     </row>
     <row r="548">
       <c r="A548" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="C548" t="s" s="2">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" t="s" s="2">
@@ -61734,13 +61906,13 @@
       </c>
       <c r="F548" s="2"/>
       <c r="G548" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H548" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I548" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="J548" t="s" s="2">
         <v>21</v>
@@ -61749,19 +61921,17 @@
         <v>81</v>
       </c>
       <c r="L548" t="s" s="2">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="M548" t="s" s="2">
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="N548" t="s" s="2">
-        <v>876</v>
-      </c>
-      <c r="O548" t="s" s="2">
-        <v>871</v>
-      </c>
+        <v>857</v>
+      </c>
+      <c r="O548" s="2"/>
       <c r="P548" t="s" s="2">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="Q548" t="s" s="2">
         <v>21</v>
@@ -61810,7 +61980,7 @@
         <v>21</v>
       </c>
       <c r="AG548" t="s" s="2">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="AH548" t="s" s="2">
         <v>73</v>
@@ -61827,13 +61997,13 @@
     </row>
     <row r="549">
       <c r="A549" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" t="s" s="2">
@@ -61856,17 +62026,19 @@
         <v>81</v>
       </c>
       <c r="L549" t="s" s="2">
-        <v>133</v>
+        <v>860</v>
       </c>
       <c r="M549" t="s" s="2">
-        <v>878</v>
+        <v>861</v>
       </c>
       <c r="N549" t="s" s="2">
-        <v>879</v>
-      </c>
-      <c r="O549" s="2"/>
+        <v>862</v>
+      </c>
+      <c r="O549" t="s" s="2">
+        <v>863</v>
+      </c>
       <c r="P549" t="s" s="2">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="Q549" t="s" s="2">
         <v>21</v>
@@ -61915,7 +62087,7 @@
         <v>21</v>
       </c>
       <c r="AG549" t="s" s="2">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="AH549" t="s" s="2">
         <v>80</v>
@@ -61932,13 +62104,13 @@
     </row>
     <row r="550">
       <c r="A550" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" t="s" s="2">
@@ -61958,19 +62130,21 @@
         <v>21</v>
       </c>
       <c r="K550" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L550" t="s" s="2">
-        <v>138</v>
+        <v>866</v>
       </c>
       <c r="M550" t="s" s="2">
-        <v>139</v>
+        <v>867</v>
       </c>
       <c r="N550" t="s" s="2">
-        <v>140</v>
+        <v>868</v>
       </c>
       <c r="O550" s="2"/>
-      <c r="P550" s="2"/>
+      <c r="P550" t="s" s="2">
+        <v>869</v>
+      </c>
       <c r="Q550" t="s" s="2">
         <v>21</v>
       </c>
@@ -62018,7 +62192,7 @@
         <v>21</v>
       </c>
       <c r="AG550" t="s" s="2">
-        <v>141</v>
+        <v>865</v>
       </c>
       <c r="AH550" t="s" s="2">
         <v>73</v>
@@ -62030,29 +62204,29 @@
         <v>21</v>
       </c>
       <c r="AK550" t="s" s="2">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="C551" t="s" s="2">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" t="s" s="2">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="F551" s="2"/>
       <c r="G551" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H551" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I551" t="s" s="2">
         <v>21</v>
@@ -62061,21 +62235,23 @@
         <v>21</v>
       </c>
       <c r="K551" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L551" t="s" s="2">
-        <v>144</v>
+        <v>866</v>
       </c>
       <c r="M551" t="s" s="2">
-        <v>145</v>
+        <v>871</v>
       </c>
       <c r="N551" t="s" s="2">
-        <v>146</v>
+        <v>872</v>
       </c>
       <c r="O551" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="P551" s="2"/>
+        <v>873</v>
+      </c>
+      <c r="P551" t="s" s="2">
+        <v>869</v>
+      </c>
       <c r="Q551" t="s" s="2">
         <v>21</v>
       </c>
@@ -62123,65 +62299,65 @@
         <v>21</v>
       </c>
       <c r="AG551" t="s" s="2">
-        <v>148</v>
+        <v>870</v>
       </c>
       <c r="AH551" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI551" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ551" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK551" t="s" s="2">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="C552" t="s" s="2">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" t="s" s="2">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="F552" s="2"/>
       <c r="G552" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H552" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I552" t="s" s="2">
         <v>21</v>
       </c>
       <c r="J552" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K552" t="s" s="2">
         <v>81</v>
       </c>
       <c r="L552" t="s" s="2">
-        <v>144</v>
+        <v>875</v>
       </c>
       <c r="M552" t="s" s="2">
-        <v>152</v>
+        <v>876</v>
       </c>
       <c r="N552" t="s" s="2">
-        <v>153</v>
+        <v>877</v>
       </c>
       <c r="O552" t="s" s="2">
-        <v>147</v>
+        <v>878</v>
       </c>
       <c r="P552" t="s" s="2">
-        <v>154</v>
+        <v>879</v>
       </c>
       <c r="Q552" t="s" s="2">
         <v>21</v>
@@ -62230,30 +62406,30 @@
         <v>21</v>
       </c>
       <c r="AG552" t="s" s="2">
-        <v>155</v>
+        <v>874</v>
       </c>
       <c r="AH552" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI552" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ552" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK552" t="s" s="2">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C553" t="s" s="2">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" t="s" s="2">
@@ -62261,13 +62437,13 @@
       </c>
       <c r="F553" s="2"/>
       <c r="G553" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H553" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I553" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="J553" t="s" s="2">
         <v>21</v>
@@ -62276,17 +62452,19 @@
         <v>81</v>
       </c>
       <c r="L553" t="s" s="2">
-        <v>138</v>
+        <v>881</v>
       </c>
       <c r="M553" t="s" s="2">
-        <v>844</v>
+        <v>882</v>
       </c>
       <c r="N553" t="s" s="2">
-        <v>885</v>
-      </c>
-      <c r="O553" s="2"/>
+        <v>883</v>
+      </c>
+      <c r="O553" t="s" s="2">
+        <v>878</v>
+      </c>
       <c r="P553" t="s" s="2">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="Q553" t="s" s="2">
         <v>21</v>
@@ -62335,7 +62513,7 @@
         <v>21</v>
       </c>
       <c r="AG553" t="s" s="2">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="AH553" t="s" s="2">
         <v>73</v>
@@ -62352,13 +62530,13 @@
     </row>
     <row r="554">
       <c r="A554" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C554" t="s" s="2">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" t="s" s="2">
@@ -62372,7 +62550,7 @@
         <v>80</v>
       </c>
       <c r="I554" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="J554" t="s" s="2">
         <v>21</v>
@@ -62381,17 +62559,17 @@
         <v>81</v>
       </c>
       <c r="L554" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M554" t="s" s="2">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="N554" t="s" s="2">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="O554" s="2"/>
       <c r="P554" t="s" s="2">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="Q554" t="s" s="2">
         <v>21</v>
@@ -62440,10 +62618,10 @@
         <v>21</v>
       </c>
       <c r="AG554" t="s" s="2">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="AH554" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI554" t="s" s="2">
         <v>80</v>
@@ -62457,13 +62635,13 @@
     </row>
     <row r="555">
       <c r="A555" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C555" t="s" s="2">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" t="s" s="2">
@@ -62483,21 +62661,19 @@
         <v>21</v>
       </c>
       <c r="K555" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L555" t="s" s="2">
         <v>138</v>
       </c>
       <c r="M555" t="s" s="2">
-        <v>892</v>
+        <v>139</v>
       </c>
       <c r="N555" t="s" s="2">
-        <v>893</v>
+        <v>140</v>
       </c>
       <c r="O555" s="2"/>
-      <c r="P555" t="s" s="2">
-        <v>890</v>
-      </c>
+      <c r="P555" s="2"/>
       <c r="Q555" t="s" s="2">
         <v>21</v>
       </c>
@@ -62545,7 +62721,7 @@
         <v>21</v>
       </c>
       <c r="AG555" t="s" s="2">
-        <v>891</v>
+        <v>141</v>
       </c>
       <c r="AH555" t="s" s="2">
         <v>73</v>
@@ -62557,29 +62733,29 @@
         <v>21</v>
       </c>
       <c r="AK555" t="s" s="2">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="C556" t="s" s="2">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="D556" s="2"/>
       <c r="E556" t="s" s="2">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="F556" s="2"/>
       <c r="G556" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H556" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I556" t="s" s="2">
         <v>21</v>
@@ -62588,21 +62764,21 @@
         <v>21</v>
       </c>
       <c r="K556" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L556" t="s" s="2">
-        <v>895</v>
+        <v>144</v>
       </c>
       <c r="M556" t="s" s="2">
-        <v>896</v>
+        <v>145</v>
       </c>
       <c r="N556" t="s" s="2">
-        <v>897</v>
-      </c>
-      <c r="O556" s="2"/>
-      <c r="P556" t="s" s="2">
-        <v>898</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O556" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="P556" s="2"/>
       <c r="Q556" t="s" s="2">
         <v>21</v>
       </c>
@@ -62650,65 +62826,65 @@
         <v>21</v>
       </c>
       <c r="AG556" t="s" s="2">
-        <v>894</v>
+        <v>148</v>
       </c>
       <c r="AH556" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI556" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ556" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK556" t="s" s="2">
-        <v>92</v>
+        <v>149</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C557" t="s" s="2">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" t="s" s="2">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="F557" s="2"/>
       <c r="G557" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H557" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I557" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J557" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="J557" t="s" s="2">
-        <v>21</v>
       </c>
       <c r="K557" t="s" s="2">
         <v>81</v>
       </c>
       <c r="L557" t="s" s="2">
-        <v>853</v>
+        <v>144</v>
       </c>
       <c r="M557" t="s" s="2">
-        <v>900</v>
+        <v>152</v>
       </c>
       <c r="N557" t="s" s="2">
-        <v>901</v>
+        <v>153</v>
       </c>
       <c r="O557" t="s" s="2">
-        <v>856</v>
+        <v>147</v>
       </c>
       <c r="P557" t="s" s="2">
-        <v>902</v>
+        <v>154</v>
       </c>
       <c r="Q557" t="s" s="2">
         <v>21</v>
@@ -62757,30 +62933,30 @@
         <v>21</v>
       </c>
       <c r="AG557" t="s" s="2">
-        <v>899</v>
+        <v>155</v>
       </c>
       <c r="AH557" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AI557" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ557" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK557" t="s" s="2">
-        <v>92</v>
+        <v>149</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="C558" t="s" s="2">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" t="s" s="2">
@@ -62803,19 +62979,17 @@
         <v>81</v>
       </c>
       <c r="L558" t="s" s="2">
-        <v>859</v>
+        <v>138</v>
       </c>
       <c r="M558" t="s" s="2">
-        <v>904</v>
+        <v>851</v>
       </c>
       <c r="N558" t="s" s="2">
-        <v>905</v>
-      </c>
-      <c r="O558" t="s" s="2">
-        <v>871</v>
-      </c>
+        <v>892</v>
+      </c>
+      <c r="O558" s="2"/>
       <c r="P558" t="s" s="2">
-        <v>872</v>
+        <v>893</v>
       </c>
       <c r="Q558" t="s" s="2">
         <v>21</v>
@@ -62864,7 +63038,7 @@
         <v>21</v>
       </c>
       <c r="AG558" t="s" s="2">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="AH558" t="s" s="2">
         <v>73</v>
@@ -62881,13 +63055,13 @@
     </row>
     <row r="559">
       <c r="A559" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="C559" t="s" s="2">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" t="s" s="2">
@@ -62895,13 +63069,13 @@
       </c>
       <c r="F559" s="2"/>
       <c r="G559" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H559" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I559" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="J559" t="s" s="2">
         <v>21</v>
@@ -62910,17 +63084,17 @@
         <v>81</v>
       </c>
       <c r="L559" t="s" s="2">
-        <v>907</v>
+        <v>138</v>
       </c>
       <c r="M559" t="s" s="2">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="N559" t="s" s="2">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="O559" s="2"/>
       <c r="P559" t="s" s="2">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="Q559" t="s" s="2">
         <v>21</v>
@@ -62945,13 +63119,13 @@
         <v>21</v>
       </c>
       <c r="Y559" t="s" s="2">
-        <v>797</v>
+        <v>21</v>
       </c>
       <c r="Z559" t="s" s="2">
-        <v>911</v>
+        <v>21</v>
       </c>
       <c r="AA559" t="s" s="2">
-        <v>912</v>
+        <v>21</v>
       </c>
       <c r="AB559" t="s" s="2">
         <v>21</v>
@@ -62969,7 +63143,7 @@
         <v>21</v>
       </c>
       <c r="AG559" t="s" s="2">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="AH559" t="s" s="2">
         <v>73</v>
@@ -62986,13 +63160,13 @@
     </row>
     <row r="560">
       <c r="A560" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="C560" t="s" s="2">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" t="s" s="2">
@@ -63015,16 +63189,18 @@
         <v>81</v>
       </c>
       <c r="L560" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M560" t="s" s="2">
-        <v>914</v>
+        <v>899</v>
       </c>
       <c r="N560" t="s" s="2">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="O560" s="2"/>
-      <c r="P560" s="2"/>
+      <c r="P560" t="s" s="2">
+        <v>897</v>
+      </c>
       <c r="Q560" t="s" s="2">
         <v>21</v>
       </c>
@@ -63072,7 +63248,7 @@
         <v>21</v>
       </c>
       <c r="AG560" t="s" s="2">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="AH560" t="s" s="2">
         <v>73</v>
@@ -63089,13 +63265,13 @@
     </row>
     <row r="561">
       <c r="A561" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>916</v>
+        <v>901</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>916</v>
+        <v>901</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" t="s" s="2">
@@ -63115,19 +63291,21 @@
         <v>21</v>
       </c>
       <c r="K561" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L561" t="s" s="2">
-        <v>138</v>
+        <v>902</v>
       </c>
       <c r="M561" t="s" s="2">
-        <v>139</v>
+        <v>903</v>
       </c>
       <c r="N561" t="s" s="2">
-        <v>140</v>
+        <v>904</v>
       </c>
       <c r="O561" s="2"/>
-      <c r="P561" s="2"/>
+      <c r="P561" t="s" s="2">
+        <v>905</v>
+      </c>
       <c r="Q561" t="s" s="2">
         <v>21</v>
       </c>
@@ -63175,7 +63353,7 @@
         <v>21</v>
       </c>
       <c r="AG561" t="s" s="2">
-        <v>141</v>
+        <v>901</v>
       </c>
       <c r="AH561" t="s" s="2">
         <v>73</v>
@@ -63187,52 +63365,54 @@
         <v>21</v>
       </c>
       <c r="AK561" t="s" s="2">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="C562" t="s" s="2">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="D562" s="2"/>
       <c r="E562" t="s" s="2">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="F562" s="2"/>
       <c r="G562" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H562" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I562" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="J562" t="s" s="2">
         <v>21</v>
       </c>
       <c r="K562" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L562" t="s" s="2">
-        <v>144</v>
+        <v>860</v>
       </c>
       <c r="M562" t="s" s="2">
-        <v>145</v>
+        <v>907</v>
       </c>
       <c r="N562" t="s" s="2">
-        <v>146</v>
+        <v>908</v>
       </c>
       <c r="O562" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="P562" s="2"/>
+        <v>863</v>
+      </c>
+      <c r="P562" t="s" s="2">
+        <v>909</v>
+      </c>
       <c r="Q562" t="s" s="2">
         <v>21</v>
       </c>
@@ -63280,65 +63460,65 @@
         <v>21</v>
       </c>
       <c r="AG562" t="s" s="2">
-        <v>148</v>
+        <v>906</v>
       </c>
       <c r="AH562" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI562" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ562" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK562" t="s" s="2">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="C563" t="s" s="2">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" t="s" s="2">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="F563" s="2"/>
       <c r="G563" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H563" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I563" t="s" s="2">
         <v>21</v>
       </c>
       <c r="J563" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K563" t="s" s="2">
         <v>81</v>
       </c>
       <c r="L563" t="s" s="2">
-        <v>144</v>
+        <v>866</v>
       </c>
       <c r="M563" t="s" s="2">
-        <v>152</v>
+        <v>911</v>
       </c>
       <c r="N563" t="s" s="2">
-        <v>153</v>
+        <v>912</v>
       </c>
       <c r="O563" t="s" s="2">
-        <v>147</v>
+        <v>878</v>
       </c>
       <c r="P563" t="s" s="2">
-        <v>154</v>
+        <v>879</v>
       </c>
       <c r="Q563" t="s" s="2">
         <v>21</v>
@@ -63387,30 +63567,30 @@
         <v>21</v>
       </c>
       <c r="AG563" t="s" s="2">
-        <v>155</v>
+        <v>910</v>
       </c>
       <c r="AH563" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI563" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ563" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK563" t="s" s="2">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="C564" t="s" s="2">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="D564" s="2"/>
       <c r="E564" t="s" s="2">
@@ -63418,7 +63598,7 @@
       </c>
       <c r="F564" s="2"/>
       <c r="G564" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H564" t="s" s="2">
         <v>80</v>
@@ -63433,17 +63613,17 @@
         <v>81</v>
       </c>
       <c r="L564" t="s" s="2">
-        <v>82</v>
+        <v>758</v>
       </c>
       <c r="M564" t="s" s="2">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="N564" t="s" s="2">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="O564" s="2"/>
       <c r="P564" t="s" s="2">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="Q564" t="s" s="2">
         <v>21</v>
@@ -63468,13 +63648,13 @@
         <v>21</v>
       </c>
       <c r="Y564" t="s" s="2">
-        <v>21</v>
+        <v>804</v>
       </c>
       <c r="Z564" t="s" s="2">
-        <v>21</v>
+        <v>917</v>
       </c>
       <c r="AA564" t="s" s="2">
-        <v>21</v>
+        <v>918</v>
       </c>
       <c r="AB564" t="s" s="2">
         <v>21</v>
@@ -63492,10 +63672,10 @@
         <v>21</v>
       </c>
       <c r="AG564" t="s" s="2">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="AH564" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AI564" t="s" s="2">
         <v>80</v>
@@ -63509,13 +63689,13 @@
     </row>
     <row r="565">
       <c r="A565" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C565" t="s" s="2">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D565" s="2"/>
       <c r="E565" t="s" s="2">
@@ -63523,7 +63703,7 @@
       </c>
       <c r="F565" s="2"/>
       <c r="G565" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H565" t="s" s="2">
         <v>80</v>
@@ -63538,20 +63718,16 @@
         <v>81</v>
       </c>
       <c r="L565" t="s" s="2">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="M565" t="s" s="2">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="N565" t="s" s="2">
-        <v>925</v>
-      </c>
-      <c r="O565" t="s" s="2">
-        <v>926</v>
-      </c>
-      <c r="P565" t="s" s="2">
-        <v>927</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="O565" s="2"/>
+      <c r="P565" s="2"/>
       <c r="Q565" t="s" s="2">
         <v>21</v>
       </c>
@@ -63575,13 +63751,13 @@
         <v>21</v>
       </c>
       <c r="Y565" t="s" s="2">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="Z565" t="s" s="2">
-        <v>928</v>
+        <v>21</v>
       </c>
       <c r="AA565" t="s" s="2">
-        <v>929</v>
+        <v>21</v>
       </c>
       <c r="AB565" t="s" s="2">
         <v>21</v>
@@ -63599,10 +63775,10 @@
         <v>21</v>
       </c>
       <c r="AG565" t="s" s="2">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="AH565" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AI565" t="s" s="2">
         <v>80</v>
@@ -63616,13 +63792,13 @@
     </row>
     <row r="566">
       <c r="A566" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="C566" t="s" s="2">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="D566" s="2"/>
       <c r="E566" t="s" s="2">
@@ -63642,23 +63818,19 @@
         <v>21</v>
       </c>
       <c r="K566" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L566" t="s" s="2">
-        <v>931</v>
+        <v>138</v>
       </c>
       <c r="M566" t="s" s="2">
-        <v>932</v>
+        <v>139</v>
       </c>
       <c r="N566" t="s" s="2">
-        <v>933</v>
-      </c>
-      <c r="O566" t="s" s="2">
-        <v>934</v>
-      </c>
-      <c r="P566" t="s" s="2">
-        <v>935</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O566" s="2"/>
+      <c r="P566" s="2"/>
       <c r="Q566" t="s" s="2">
         <v>21</v>
       </c>
@@ -63706,7 +63878,7 @@
         <v>21</v>
       </c>
       <c r="AG566" t="s" s="2">
-        <v>930</v>
+        <v>141</v>
       </c>
       <c r="AH566" t="s" s="2">
         <v>73</v>
@@ -63718,22 +63890,22 @@
         <v>21</v>
       </c>
       <c r="AK566" t="s" s="2">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="C567" t="s" s="2">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="D567" s="2"/>
       <c r="E567" t="s" s="2">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="F567" s="2"/>
       <c r="G567" t="s" s="2">
@@ -63743,29 +63915,27 @@
         <v>74</v>
       </c>
       <c r="I567" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="J567" t="s" s="2">
         <v>21</v>
       </c>
       <c r="K567" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L567" t="s" s="2">
-        <v>937</v>
+        <v>144</v>
       </c>
       <c r="M567" t="s" s="2">
-        <v>938</v>
+        <v>145</v>
       </c>
       <c r="N567" t="s" s="2">
-        <v>939</v>
+        <v>146</v>
       </c>
       <c r="O567" t="s" s="2">
-        <v>940</v>
-      </c>
-      <c r="P567" t="s" s="2">
-        <v>941</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="P567" s="2"/>
       <c r="Q567" t="s" s="2">
         <v>21</v>
       </c>
@@ -63813,7 +63983,7 @@
         <v>21</v>
       </c>
       <c r="AG567" t="s" s="2">
-        <v>936</v>
+        <v>148</v>
       </c>
       <c r="AH567" t="s" s="2">
         <v>73</v>
@@ -63825,51 +63995,53 @@
         <v>21</v>
       </c>
       <c r="AK567" t="s" s="2">
-        <v>92</v>
+        <v>149</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>942</v>
+        <v>924</v>
       </c>
       <c r="C568" t="s" s="2">
-        <v>942</v>
+        <v>924</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" t="s" s="2">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="F568" s="2"/>
       <c r="G568" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H568" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I568" t="s" s="2">
         <v>21</v>
       </c>
       <c r="J568" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="K568" t="s" s="2">
         <v>81</v>
       </c>
       <c r="L568" t="s" s="2">
-        <v>943</v>
+        <v>144</v>
       </c>
       <c r="M568" t="s" s="2">
-        <v>944</v>
+        <v>152</v>
       </c>
       <c r="N568" t="s" s="2">
-        <v>945</v>
-      </c>
-      <c r="O568" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O568" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P568" t="s" s="2">
-        <v>946</v>
+        <v>154</v>
       </c>
       <c r="Q568" t="s" s="2">
         <v>21</v>
@@ -63918,30 +64090,30 @@
         <v>21</v>
       </c>
       <c r="AG568" t="s" s="2">
-        <v>942</v>
+        <v>155</v>
       </c>
       <c r="AH568" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI568" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ568" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK568" t="s" s="2">
-        <v>92</v>
+        <v>149</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="s" s="2">
-        <v>947</v>
+        <v>760</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>950</v>
+        <v>925</v>
       </c>
       <c r="C569" t="s" s="2">
-        <v>950</v>
+        <v>925</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" t="s" s="2">
@@ -63949,10 +64121,10 @@
       </c>
       <c r="F569" s="2"/>
       <c r="G569" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H569" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I569" t="s" s="2">
         <v>21</v>
@@ -63961,21 +64133,21 @@
         <v>21</v>
       </c>
       <c r="K569" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L569" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="M569" t="s" s="2">
-        <v>952</v>
+        <v>926</v>
       </c>
       <c r="N569" t="s" s="2">
-        <v>953</v>
-      </c>
-      <c r="O569" t="s" s="2">
-        <v>954</v>
-      </c>
-      <c r="P569" s="2"/>
+        <v>927</v>
+      </c>
+      <c r="O569" s="2"/>
+      <c r="P569" t="s" s="2">
+        <v>928</v>
+      </c>
       <c r="Q569" t="s" s="2">
         <v>21</v>
       </c>
@@ -64023,30 +64195,30 @@
         <v>21</v>
       </c>
       <c r="AG569" t="s" s="2">
-        <v>950</v>
+        <v>925</v>
       </c>
       <c r="AH569" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI569" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ569" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK569" t="s" s="2">
-        <v>955</v>
+        <v>92</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="s" s="2">
-        <v>947</v>
+        <v>760</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>956</v>
+        <v>929</v>
       </c>
       <c r="C570" t="s" s="2">
-        <v>956</v>
+        <v>929</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" t="s" s="2">
@@ -64054,7 +64226,7 @@
       </c>
       <c r="F570" s="2"/>
       <c r="G570" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H570" t="s" s="2">
         <v>80</v>
@@ -64069,18 +64241,20 @@
         <v>81</v>
       </c>
       <c r="L570" t="s" s="2">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="M570" t="s" s="2">
-        <v>83</v>
+        <v>930</v>
       </c>
       <c r="N570" t="s" s="2">
-        <v>84</v>
+        <v>931</v>
       </c>
       <c r="O570" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="P570" s="2"/>
+        <v>932</v>
+      </c>
+      <c r="P570" t="s" s="2">
+        <v>933</v>
+      </c>
       <c r="Q570" t="s" s="2">
         <v>21</v>
       </c>
@@ -64104,13 +64278,13 @@
         <v>21</v>
       </c>
       <c r="Y570" t="s" s="2">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="Z570" t="s" s="2">
-        <v>21</v>
+        <v>934</v>
       </c>
       <c r="AA570" t="s" s="2">
-        <v>21</v>
+        <v>935</v>
       </c>
       <c r="AB570" t="s" s="2">
         <v>21</v>
@@ -64128,10 +64302,10 @@
         <v>21</v>
       </c>
       <c r="AG570" t="s" s="2">
-        <v>86</v>
+        <v>929</v>
       </c>
       <c r="AH570" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI570" t="s" s="2">
         <v>80</v>
@@ -64140,18 +64314,18 @@
         <v>21</v>
       </c>
       <c r="AK570" t="s" s="2">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="s" s="2">
-        <v>947</v>
+        <v>760</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="C571" t="s" s="2">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" t="s" s="2">
@@ -64174,16 +64348,20 @@
         <v>81</v>
       </c>
       <c r="L571" t="s" s="2">
-        <v>88</v>
+        <v>937</v>
       </c>
       <c r="M571" t="s" s="2">
-        <v>89</v>
+        <v>938</v>
       </c>
       <c r="N571" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="O571" s="2"/>
-      <c r="P571" s="2"/>
+        <v>939</v>
+      </c>
+      <c r="O571" t="s" s="2">
+        <v>940</v>
+      </c>
+      <c r="P571" t="s" s="2">
+        <v>941</v>
+      </c>
       <c r="Q571" t="s" s="2">
         <v>21</v>
       </c>
@@ -64231,7 +64409,7 @@
         <v>21</v>
       </c>
       <c r="AG571" t="s" s="2">
-        <v>91</v>
+        <v>936</v>
       </c>
       <c r="AH571" t="s" s="2">
         <v>73</v>
@@ -64248,13 +64426,13 @@
     </row>
     <row r="572">
       <c r="A572" t="s" s="2">
-        <v>947</v>
+        <v>760</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>958</v>
+        <v>942</v>
       </c>
       <c r="C572" t="s" s="2">
-        <v>958</v>
+        <v>942</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" t="s" s="2">
@@ -64265,30 +64443,32 @@
         <v>73</v>
       </c>
       <c r="H572" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I572" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="J572" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K572" t="s" s="2">
         <v>81</v>
       </c>
       <c r="L572" t="s" s="2">
-        <v>94</v>
+        <v>943</v>
       </c>
       <c r="M572" t="s" s="2">
-        <v>95</v>
+        <v>944</v>
       </c>
       <c r="N572" t="s" s="2">
-        <v>96</v>
+        <v>945</v>
       </c>
       <c r="O572" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="P572" s="2"/>
+        <v>946</v>
+      </c>
+      <c r="P572" t="s" s="2">
+        <v>947</v>
+      </c>
       <c r="Q572" t="s" s="2">
         <v>21</v>
       </c>
@@ -64336,13 +64516,13 @@
         <v>21</v>
       </c>
       <c r="AG572" t="s" s="2">
-        <v>98</v>
+        <v>942</v>
       </c>
       <c r="AH572" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI572" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ572" t="s" s="2">
         <v>21</v>
@@ -64353,13 +64533,13 @@
     </row>
     <row r="573">
       <c r="A573" t="s" s="2">
-        <v>947</v>
+        <v>760</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="C573" t="s" s="2">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" t="s" s="2">
@@ -64379,21 +64559,21 @@
         <v>21</v>
       </c>
       <c r="K573" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L573" t="s" s="2">
-        <v>100</v>
+        <v>949</v>
       </c>
       <c r="M573" t="s" s="2">
-        <v>101</v>
+        <v>950</v>
       </c>
       <c r="N573" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="O573" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="P573" s="2"/>
+        <v>951</v>
+      </c>
+      <c r="O573" s="2"/>
+      <c r="P573" t="s" s="2">
+        <v>952</v>
+      </c>
       <c r="Q573" t="s" s="2">
         <v>21</v>
       </c>
@@ -64417,13 +64597,13 @@
         <v>21</v>
       </c>
       <c r="Y573" t="s" s="2">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="Z573" t="s" s="2">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="AA573" t="s" s="2">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="AB573" t="s" s="2">
         <v>21</v>
@@ -64441,7 +64621,7 @@
         <v>21</v>
       </c>
       <c r="AG573" t="s" s="2">
-        <v>107</v>
+        <v>948</v>
       </c>
       <c r="AH573" t="s" s="2">
         <v>73</v>
@@ -64458,24 +64638,24 @@
     </row>
     <row r="574">
       <c r="A574" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C574" t="s" s="2">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" t="s" s="2">
-        <v>804</v>
+        <v>21</v>
       </c>
       <c r="F574" s="2"/>
       <c r="G574" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H574" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I574" t="s" s="2">
         <v>21</v>
@@ -64487,16 +64667,16 @@
         <v>21</v>
       </c>
       <c r="L574" t="s" s="2">
-        <v>805</v>
+        <v>75</v>
       </c>
       <c r="M574" t="s" s="2">
-        <v>806</v>
+        <v>958</v>
       </c>
       <c r="N574" t="s" s="2">
-        <v>807</v>
+        <v>959</v>
       </c>
       <c r="O574" t="s" s="2">
-        <v>808</v>
+        <v>960</v>
       </c>
       <c r="P574" s="2"/>
       <c r="Q574" t="s" s="2">
@@ -64546,41 +64726,41 @@
         <v>21</v>
       </c>
       <c r="AG574" t="s" s="2">
-        <v>809</v>
+        <v>956</v>
       </c>
       <c r="AH574" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI574" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ574" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK574" t="s" s="2">
-        <v>92</v>
+        <v>961</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B575" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C575" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" t="s" s="2">
-        <v>811</v>
+        <v>21</v>
       </c>
       <c r="F575" s="2"/>
       <c r="G575" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H575" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I575" t="s" s="2">
         <v>21</v>
@@ -64589,19 +64769,19 @@
         <v>21</v>
       </c>
       <c r="K575" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L575" t="s" s="2">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="M575" t="s" s="2">
-        <v>812</v>
+        <v>83</v>
       </c>
       <c r="N575" t="s" s="2">
-        <v>813</v>
+        <v>84</v>
       </c>
       <c r="O575" t="s" s="2">
-        <v>814</v>
+        <v>85</v>
       </c>
       <c r="P575" s="2"/>
       <c r="Q575" t="s" s="2">
@@ -64651,13 +64831,13 @@
         <v>21</v>
       </c>
       <c r="AG575" t="s" s="2">
-        <v>815</v>
+        <v>86</v>
       </c>
       <c r="AH575" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI575" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ575" t="s" s="2">
         <v>21</v>
@@ -64668,13 +64848,13 @@
     </row>
     <row r="576">
       <c r="A576" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B576" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C576" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" t="s" s="2">
@@ -64685,7 +64865,7 @@
         <v>73</v>
       </c>
       <c r="H576" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I576" t="s" s="2">
         <v>21</v>
@@ -64694,16 +64874,16 @@
         <v>21</v>
       </c>
       <c r="K576" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L576" t="s" s="2">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="M576" t="s" s="2">
-        <v>735</v>
+        <v>89</v>
       </c>
       <c r="N576" t="s" s="2">
-        <v>742</v>
+        <v>90</v>
       </c>
       <c r="O576" s="2"/>
       <c r="P576" s="2"/>
@@ -64742,44 +64922,44 @@
         <v>21</v>
       </c>
       <c r="AC576" t="s" s="2">
-        <v>743</v>
-      </c>
-      <c r="AD576" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="AD576" t="s" s="2">
+        <v>21</v>
+      </c>
       <c r="AE576" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AF576" t="s" s="2">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="AG576" t="s" s="2">
-        <v>818</v>
+        <v>91</v>
       </c>
       <c r="AH576" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI576" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ576" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK576" t="s" s="2">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C577" t="s" s="2">
-        <v>962</v>
-      </c>
-      <c r="D577" t="s" s="2">
         <v>964</v>
       </c>
+      <c r="D577" s="2"/>
       <c r="E577" t="s" s="2">
         <v>21</v>
       </c>
@@ -64791,24 +64971,26 @@
         <v>80</v>
       </c>
       <c r="I577" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J577" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="J577" t="s" s="2">
-        <v>21</v>
-      </c>
       <c r="K577" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L577" t="s" s="2">
-        <v>965</v>
+        <v>94</v>
       </c>
       <c r="M577" t="s" s="2">
-        <v>964</v>
+        <v>95</v>
       </c>
       <c r="N577" t="s" s="2">
-        <v>733</v>
-      </c>
-      <c r="O577" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="O577" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="P577" s="2"/>
       <c r="Q577" t="s" s="2">
         <v>21</v>
@@ -64857,66 +65039,64 @@
         <v>21</v>
       </c>
       <c r="AG577" t="s" s="2">
-        <v>818</v>
+        <v>98</v>
       </c>
       <c r="AH577" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI577" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ577" t="s" s="2">
-        <v>739</v>
+        <v>21</v>
       </c>
       <c r="AK577" t="s" s="2">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B578" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C578" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D578" s="2"/>
       <c r="E578" t="s" s="2">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="F578" s="2"/>
       <c r="G578" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H578" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I578" t="s" s="2">
         <v>21</v>
       </c>
       <c r="J578" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K578" t="s" s="2">
         <v>21</v>
       </c>
       <c r="L578" t="s" s="2">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="M578" t="s" s="2">
-        <v>820</v>
+        <v>101</v>
       </c>
       <c r="N578" t="s" s="2">
-        <v>821</v>
+        <v>102</v>
       </c>
       <c r="O578" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="P578" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P578" s="2"/>
       <c r="Q578" t="s" s="2">
         <v>21</v>
       </c>
@@ -64940,13 +65120,13 @@
         <v>21</v>
       </c>
       <c r="Y578" t="s" s="2">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="Z578" t="s" s="2">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="AA578" t="s" s="2">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="AB578" t="s" s="2">
         <v>21</v>
@@ -64964,41 +65144,41 @@
         <v>21</v>
       </c>
       <c r="AG578" t="s" s="2">
-        <v>822</v>
+        <v>107</v>
       </c>
       <c r="AH578" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI578" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ578" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK578" t="s" s="2">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B579" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C579" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D579" s="2"/>
       <c r="E579" t="s" s="2">
-        <v>21</v>
+        <v>811</v>
       </c>
       <c r="F579" s="2"/>
       <c r="G579" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H579" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I579" t="s" s="2">
         <v>21</v>
@@ -65007,23 +65187,21 @@
         <v>21</v>
       </c>
       <c r="K579" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L579" t="s" s="2">
-        <v>109</v>
+        <v>812</v>
       </c>
       <c r="M579" t="s" s="2">
-        <v>968</v>
+        <v>813</v>
       </c>
       <c r="N579" t="s" s="2">
-        <v>969</v>
+        <v>814</v>
       </c>
       <c r="O579" t="s" s="2">
-        <v>970</v>
-      </c>
-      <c r="P579" t="s" s="2">
-        <v>971</v>
-      </c>
+        <v>815</v>
+      </c>
+      <c r="P579" s="2"/>
       <c r="Q579" t="s" s="2">
         <v>21</v>
       </c>
@@ -65071,13 +65249,13 @@
         <v>21</v>
       </c>
       <c r="AG579" t="s" s="2">
-        <v>967</v>
+        <v>816</v>
       </c>
       <c r="AH579" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI579" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ579" t="s" s="2">
         <v>21</v>
@@ -65088,49 +65266,47 @@
     </row>
     <row r="580">
       <c r="A580" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B580" t="s" s="2">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="C580" t="s" s="2">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="D580" s="2"/>
       <c r="E580" t="s" s="2">
-        <v>21</v>
+        <v>818</v>
       </c>
       <c r="F580" s="2"/>
       <c r="G580" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H580" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I580" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="J580" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K580" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L580" t="s" s="2">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="M580" t="s" s="2">
-        <v>973</v>
+        <v>819</v>
       </c>
       <c r="N580" t="s" s="2">
-        <v>974</v>
+        <v>820</v>
       </c>
       <c r="O580" t="s" s="2">
-        <v>975</v>
-      </c>
-      <c r="P580" t="s" s="2">
-        <v>976</v>
-      </c>
+        <v>821</v>
+      </c>
+      <c r="P580" s="2"/>
       <c r="Q580" t="s" s="2">
         <v>21</v>
       </c>
@@ -65139,7 +65315,7 @@
         <v>21</v>
       </c>
       <c r="T580" t="s" s="2">
-        <v>977</v>
+        <v>21</v>
       </c>
       <c r="U580" t="s" s="2">
         <v>21</v>
@@ -65154,13 +65330,13 @@
         <v>21</v>
       </c>
       <c r="Y580" t="s" s="2">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="Z580" t="s" s="2">
-        <v>978</v>
+        <v>21</v>
       </c>
       <c r="AA580" t="s" s="2">
-        <v>979</v>
+        <v>21</v>
       </c>
       <c r="AB580" t="s" s="2">
         <v>21</v>
@@ -65178,30 +65354,30 @@
         <v>21</v>
       </c>
       <c r="AG580" t="s" s="2">
-        <v>972</v>
+        <v>822</v>
       </c>
       <c r="AH580" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AI580" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ580" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK580" t="s" s="2">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B581" t="s" s="2">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="C581" t="s" s="2">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="D581" s="2"/>
       <c r="E581" t="s" s="2">
@@ -65209,33 +65385,31 @@
       </c>
       <c r="F581" s="2"/>
       <c r="G581" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H581" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I581" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="J581" t="s" s="2">
         <v>21</v>
       </c>
       <c r="K581" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L581" t="s" s="2">
-        <v>907</v>
+        <v>144</v>
       </c>
       <c r="M581" t="s" s="2">
-        <v>981</v>
+        <v>735</v>
       </c>
       <c r="N581" t="s" s="2">
-        <v>982</v>
+        <v>742</v>
       </c>
       <c r="O581" s="2"/>
-      <c r="P581" t="s" s="2">
-        <v>983</v>
-      </c>
+      <c r="P581" s="2"/>
       <c r="Q581" t="s" s="2">
         <v>21</v>
       </c>
@@ -65259,54 +65433,56 @@
         <v>21</v>
       </c>
       <c r="Y581" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Z581" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="Z581" t="s" s="2">
+        <v>21</v>
+      </c>
       <c r="AA581" t="s" s="2">
-        <v>984</v>
+        <v>21</v>
       </c>
       <c r="AB581" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AC581" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AD581" t="s" s="2">
-        <v>21</v>
-      </c>
+        <v>743</v>
+      </c>
+      <c r="AD581" s="2"/>
       <c r="AE581" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AF581" t="s" s="2">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="AG581" t="s" s="2">
-        <v>980</v>
+        <v>825</v>
       </c>
       <c r="AH581" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI581" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ581" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK581" t="s" s="2">
-        <v>92</v>
+        <v>149</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B582" t="s" s="2">
-        <v>985</v>
+        <v>969</v>
       </c>
       <c r="C582" t="s" s="2">
-        <v>985</v>
-      </c>
-      <c r="D582" s="2"/>
+        <v>968</v>
+      </c>
+      <c r="D582" t="s" s="2">
+        <v>970</v>
+      </c>
       <c r="E582" t="s" s="2">
         <v>21</v>
       </c>
@@ -65318,7 +65494,7 @@
         <v>80</v>
       </c>
       <c r="I582" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="J582" t="s" s="2">
         <v>21</v>
@@ -65327,13 +65503,13 @@
         <v>21</v>
       </c>
       <c r="L582" t="s" s="2">
-        <v>138</v>
+        <v>971</v>
       </c>
       <c r="M582" t="s" s="2">
-        <v>139</v>
+        <v>970</v>
       </c>
       <c r="N582" t="s" s="2">
-        <v>140</v>
+        <v>733</v>
       </c>
       <c r="O582" s="2"/>
       <c r="P582" s="2"/>
@@ -65384,30 +65560,30 @@
         <v>21</v>
       </c>
       <c r="AG582" t="s" s="2">
-        <v>141</v>
+        <v>825</v>
       </c>
       <c r="AH582" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI582" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ582" t="s" s="2">
-        <v>21</v>
+        <v>739</v>
       </c>
       <c r="AK582" t="s" s="2">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B583" t="s" s="2">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="C583" t="s" s="2">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="D583" s="2"/>
       <c r="E583" t="s" s="2">
@@ -65424,7 +65600,7 @@
         <v>21</v>
       </c>
       <c r="J583" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="K583" t="s" s="2">
         <v>21</v>
@@ -65433,15 +65609,17 @@
         <v>144</v>
       </c>
       <c r="M583" t="s" s="2">
-        <v>145</v>
+        <v>827</v>
       </c>
       <c r="N583" t="s" s="2">
-        <v>146</v>
+        <v>828</v>
       </c>
       <c r="O583" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="P583" s="2"/>
+      <c r="P583" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="Q583" t="s" s="2">
         <v>21</v>
       </c>
@@ -65477,19 +65655,19 @@
         <v>21</v>
       </c>
       <c r="AC583" t="s" s="2">
-        <v>743</v>
+        <v>21</v>
       </c>
       <c r="AD583" t="s" s="2">
-        <v>744</v>
+        <v>21</v>
       </c>
       <c r="AE583" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AF583" t="s" s="2">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="AG583" t="s" s="2">
-        <v>148</v>
+        <v>829</v>
       </c>
       <c r="AH583" t="s" s="2">
         <v>73</v>
@@ -65506,13 +65684,13 @@
     </row>
     <row r="584">
       <c r="A584" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B584" t="s" s="2">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="C584" t="s" s="2">
-        <v>987</v>
+        <v>973</v>
       </c>
       <c r="D584" s="2"/>
       <c r="E584" t="s" s="2">
@@ -65520,10 +65698,10 @@
       </c>
       <c r="F584" s="2"/>
       <c r="G584" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H584" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I584" t="s" s="2">
         <v>21</v>
@@ -65535,19 +65713,19 @@
         <v>81</v>
       </c>
       <c r="L584" t="s" s="2">
-        <v>785</v>
+        <v>109</v>
       </c>
       <c r="M584" t="s" s="2">
-        <v>988</v>
+        <v>974</v>
       </c>
       <c r="N584" t="s" s="2">
-        <v>989</v>
+        <v>975</v>
       </c>
       <c r="O584" t="s" s="2">
-        <v>990</v>
+        <v>976</v>
       </c>
       <c r="P584" t="s" s="2">
-        <v>991</v>
+        <v>977</v>
       </c>
       <c r="Q584" t="s" s="2">
         <v>21</v>
@@ -65596,7 +65774,7 @@
         <v>21</v>
       </c>
       <c r="AG584" t="s" s="2">
-        <v>992</v>
+        <v>973</v>
       </c>
       <c r="AH584" t="s" s="2">
         <v>73</v>
@@ -65613,13 +65791,13 @@
     </row>
     <row r="585">
       <c r="A585" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>993</v>
+        <v>978</v>
       </c>
       <c r="C585" t="s" s="2">
-        <v>993</v>
+        <v>978</v>
       </c>
       <c r="D585" s="2"/>
       <c r="E585" t="s" s="2">
@@ -65627,31 +65805,35 @@
       </c>
       <c r="F585" s="2"/>
       <c r="G585" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H585" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I585" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="J585" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="K585" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L585" t="s" s="2">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="M585" t="s" s="2">
-        <v>139</v>
+        <v>979</v>
       </c>
       <c r="N585" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O585" s="2"/>
-      <c r="P585" s="2"/>
+        <v>980</v>
+      </c>
+      <c r="O585" t="s" s="2">
+        <v>981</v>
+      </c>
+      <c r="P585" t="s" s="2">
+        <v>982</v>
+      </c>
       <c r="Q585" t="s" s="2">
         <v>21</v>
       </c>
@@ -65660,7 +65842,7 @@
         <v>21</v>
       </c>
       <c r="T585" t="s" s="2">
-        <v>21</v>
+        <v>983</v>
       </c>
       <c r="U585" t="s" s="2">
         <v>21</v>
@@ -65675,13 +65857,13 @@
         <v>21</v>
       </c>
       <c r="Y585" t="s" s="2">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="Z585" t="s" s="2">
-        <v>21</v>
+        <v>984</v>
       </c>
       <c r="AA585" t="s" s="2">
-        <v>21</v>
+        <v>985</v>
       </c>
       <c r="AB585" t="s" s="2">
         <v>21</v>
@@ -65699,10 +65881,10 @@
         <v>21</v>
       </c>
       <c r="AG585" t="s" s="2">
-        <v>141</v>
+        <v>978</v>
       </c>
       <c r="AH585" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI585" t="s" s="2">
         <v>80</v>
@@ -65711,52 +65893,52 @@
         <v>21</v>
       </c>
       <c r="AK585" t="s" s="2">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B586" t="s" s="2">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="C586" t="s" s="2">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="D586" s="2"/>
       <c r="E586" t="s" s="2">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="F586" s="2"/>
       <c r="G586" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H586" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I586" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="J586" t="s" s="2">
         <v>21</v>
       </c>
       <c r="K586" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L586" t="s" s="2">
-        <v>144</v>
+        <v>758</v>
       </c>
       <c r="M586" t="s" s="2">
-        <v>145</v>
+        <v>987</v>
       </c>
       <c r="N586" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O586" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="P586" s="2"/>
+        <v>988</v>
+      </c>
+      <c r="O586" s="2"/>
+      <c r="P586" t="s" s="2">
+        <v>989</v>
+      </c>
       <c r="Q586" t="s" s="2">
         <v>21</v>
       </c>
@@ -65780,54 +65962,52 @@
         <v>21</v>
       </c>
       <c r="Y586" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="Z586" t="s" s="2">
-        <v>21</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="Z586" s="2"/>
       <c r="AA586" t="s" s="2">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="AB586" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AC586" t="s" s="2">
-        <v>743</v>
+        <v>21</v>
       </c>
       <c r="AD586" t="s" s="2">
-        <v>744</v>
+        <v>21</v>
       </c>
       <c r="AE586" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AF586" t="s" s="2">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="AG586" t="s" s="2">
-        <v>148</v>
+        <v>986</v>
       </c>
       <c r="AH586" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI586" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ586" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK586" t="s" s="2">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B587" t="s" s="2">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="C587" t="s" s="2">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D587" s="2"/>
       <c r="E587" t="s" s="2">
@@ -65847,23 +66027,19 @@
         <v>21</v>
       </c>
       <c r="K587" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L587" t="s" s="2">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="M587" t="s" s="2">
-        <v>996</v>
+        <v>139</v>
       </c>
       <c r="N587" t="s" s="2">
-        <v>997</v>
-      </c>
-      <c r="O587" t="s" s="2">
-        <v>998</v>
-      </c>
-      <c r="P587" t="s" s="2">
-        <v>999</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O587" s="2"/>
+      <c r="P587" s="2"/>
       <c r="Q587" t="s" s="2">
         <v>21</v>
       </c>
@@ -65911,7 +66087,7 @@
         <v>21</v>
       </c>
       <c r="AG587" t="s" s="2">
-        <v>1000</v>
+        <v>141</v>
       </c>
       <c r="AH587" t="s" s="2">
         <v>73</v>
@@ -65923,29 +66099,29 @@
         <v>21</v>
       </c>
       <c r="AK587" t="s" s="2">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B588" t="s" s="2">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="C588" t="s" s="2">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="D588" s="2"/>
       <c r="E588" t="s" s="2">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="F588" s="2"/>
       <c r="G588" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H588" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I588" t="s" s="2">
         <v>21</v>
@@ -65954,19 +66130,19 @@
         <v>21</v>
       </c>
       <c r="K588" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L588" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M588" t="s" s="2">
-        <v>1002</v>
+        <v>145</v>
       </c>
       <c r="N588" t="s" s="2">
-        <v>1003</v>
+        <v>146</v>
       </c>
       <c r="O588" t="s" s="2">
-        <v>1004</v>
+        <v>147</v>
       </c>
       <c r="P588" s="2"/>
       <c r="Q588" t="s" s="2">
@@ -66004,42 +66180,42 @@
         <v>21</v>
       </c>
       <c r="AC588" t="s" s="2">
-        <v>21</v>
+        <v>743</v>
       </c>
       <c r="AD588" t="s" s="2">
-        <v>21</v>
+        <v>744</v>
       </c>
       <c r="AE588" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AF588" t="s" s="2">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="AG588" t="s" s="2">
-        <v>1005</v>
+        <v>148</v>
       </c>
       <c r="AH588" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI588" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ588" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK588" t="s" s="2">
-        <v>92</v>
+        <v>149</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B589" t="s" s="2">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="C589" t="s" s="2">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="D589" s="2"/>
       <c r="E589" t="s" s="2">
@@ -66062,17 +66238,19 @@
         <v>81</v>
       </c>
       <c r="L589" t="s" s="2">
-        <v>100</v>
+        <v>792</v>
       </c>
       <c r="M589" t="s" s="2">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="N589" t="s" s="2">
-        <v>1008</v>
-      </c>
-      <c r="O589" s="2"/>
+        <v>995</v>
+      </c>
+      <c r="O589" t="s" s="2">
+        <v>996</v>
+      </c>
       <c r="P589" t="s" s="2">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="Q589" t="s" s="2">
         <v>21</v>
@@ -66121,13 +66299,13 @@
         <v>21</v>
       </c>
       <c r="AG589" t="s" s="2">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="AH589" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI589" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ589" t="s" s="2">
         <v>21</v>
@@ -66138,13 +66316,13 @@
     </row>
     <row r="590">
       <c r="A590" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="C590" t="s" s="2">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="D590" s="2"/>
       <c r="E590" t="s" s="2">
@@ -66152,7 +66330,7 @@
       </c>
       <c r="F590" s="2"/>
       <c r="G590" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H590" t="s" s="2">
         <v>80</v>
@@ -66164,21 +66342,19 @@
         <v>21</v>
       </c>
       <c r="K590" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L590" t="s" s="2">
         <v>138</v>
       </c>
       <c r="M590" t="s" s="2">
-        <v>1012</v>
+        <v>139</v>
       </c>
       <c r="N590" t="s" s="2">
-        <v>1013</v>
+        <v>140</v>
       </c>
       <c r="O590" s="2"/>
-      <c r="P590" t="s" s="2">
-        <v>1014</v>
-      </c>
+      <c r="P590" s="2"/>
       <c r="Q590" t="s" s="2">
         <v>21</v>
       </c>
@@ -66226,7 +66402,7 @@
         <v>21</v>
       </c>
       <c r="AG590" t="s" s="2">
-        <v>1015</v>
+        <v>141</v>
       </c>
       <c r="AH590" t="s" s="2">
         <v>73</v>
@@ -66238,29 +66414,29 @@
         <v>21</v>
       </c>
       <c r="AK590" t="s" s="2">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>1016</v>
+        <v>1000</v>
       </c>
       <c r="C591" t="s" s="2">
-        <v>1016</v>
+        <v>1000</v>
       </c>
       <c r="D591" s="2"/>
       <c r="E591" t="s" s="2">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="F591" s="2"/>
       <c r="G591" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H591" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I591" t="s" s="2">
         <v>21</v>
@@ -66269,23 +66445,21 @@
         <v>21</v>
       </c>
       <c r="K591" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L591" t="s" s="2">
-        <v>750</v>
+        <v>144</v>
       </c>
       <c r="M591" t="s" s="2">
-        <v>1017</v>
+        <v>145</v>
       </c>
       <c r="N591" t="s" s="2">
-        <v>1018</v>
+        <v>146</v>
       </c>
       <c r="O591" t="s" s="2">
-        <v>1019</v>
-      </c>
-      <c r="P591" t="s" s="2">
-        <v>1020</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="P591" s="2"/>
       <c r="Q591" t="s" s="2">
         <v>21</v>
       </c>
@@ -66321,42 +66495,42 @@
         <v>21</v>
       </c>
       <c r="AC591" t="s" s="2">
-        <v>21</v>
+        <v>743</v>
       </c>
       <c r="AD591" t="s" s="2">
-        <v>21</v>
+        <v>744</v>
       </c>
       <c r="AE591" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AF591" t="s" s="2">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="AG591" t="s" s="2">
-        <v>1021</v>
+        <v>148</v>
       </c>
       <c r="AH591" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI591" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ591" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK591" t="s" s="2">
-        <v>92</v>
+        <v>149</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B592" t="s" s="2">
-        <v>1022</v>
+        <v>1001</v>
       </c>
       <c r="C592" t="s" s="2">
-        <v>1022</v>
+        <v>1001</v>
       </c>
       <c r="D592" s="2"/>
       <c r="E592" t="s" s="2">
@@ -66379,19 +66553,19 @@
         <v>81</v>
       </c>
       <c r="L592" t="s" s="2">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="M592" t="s" s="2">
-        <v>1023</v>
+        <v>1002</v>
       </c>
       <c r="N592" t="s" s="2">
-        <v>1024</v>
+        <v>1003</v>
       </c>
       <c r="O592" t="s" s="2">
-        <v>1025</v>
+        <v>1004</v>
       </c>
       <c r="P592" t="s" s="2">
-        <v>1026</v>
+        <v>1005</v>
       </c>
       <c r="Q592" t="s" s="2">
         <v>21</v>
@@ -66440,7 +66614,7 @@
         <v>21</v>
       </c>
       <c r="AG592" t="s" s="2">
-        <v>1027</v>
+        <v>1006</v>
       </c>
       <c r="AH592" t="s" s="2">
         <v>73</v>
@@ -66457,13 +66631,13 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B593" t="s" s="2">
-        <v>1028</v>
+        <v>1007</v>
       </c>
       <c r="C593" t="s" s="2">
-        <v>1028</v>
+        <v>1007</v>
       </c>
       <c r="D593" s="2"/>
       <c r="E593" t="s" s="2">
@@ -66486,20 +66660,18 @@
         <v>81</v>
       </c>
       <c r="L593" t="s" s="2">
-        <v>1029</v>
+        <v>138</v>
       </c>
       <c r="M593" t="s" s="2">
-        <v>1030</v>
+        <v>1008</v>
       </c>
       <c r="N593" t="s" s="2">
-        <v>1031</v>
+        <v>1009</v>
       </c>
       <c r="O593" t="s" s="2">
-        <v>1032</v>
-      </c>
-      <c r="P593" t="s" s="2">
-        <v>1033</v>
-      </c>
+        <v>1010</v>
+      </c>
+      <c r="P593" s="2"/>
       <c r="Q593" t="s" s="2">
         <v>21</v>
       </c>
@@ -66547,7 +66719,7 @@
         <v>21</v>
       </c>
       <c r="AG593" t="s" s="2">
-        <v>1028</v>
+        <v>1011</v>
       </c>
       <c r="AH593" t="s" s="2">
         <v>73</v>
@@ -66564,13 +66736,13 @@
     </row>
     <row r="594">
       <c r="A594" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B594" t="s" s="2">
-        <v>1034</v>
+        <v>1012</v>
       </c>
       <c r="C594" t="s" s="2">
-        <v>1034</v>
+        <v>1012</v>
       </c>
       <c r="D594" s="2"/>
       <c r="E594" t="s" s="2">
@@ -66578,7 +66750,7 @@
       </c>
       <c r="F594" s="2"/>
       <c r="G594" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H594" t="s" s="2">
         <v>80</v>
@@ -66593,19 +66765,17 @@
         <v>81</v>
       </c>
       <c r="L594" t="s" s="2">
-        <v>1035</v>
+        <v>100</v>
       </c>
       <c r="M594" t="s" s="2">
-        <v>1036</v>
+        <v>1013</v>
       </c>
       <c r="N594" t="s" s="2">
-        <v>1037</v>
-      </c>
-      <c r="O594" t="s" s="2">
-        <v>1038</v>
-      </c>
+        <v>1014</v>
+      </c>
+      <c r="O594" s="2"/>
       <c r="P594" t="s" s="2">
-        <v>1039</v>
+        <v>1015</v>
       </c>
       <c r="Q594" t="s" s="2">
         <v>21</v>
@@ -66654,7 +66824,7 @@
         <v>21</v>
       </c>
       <c r="AG594" t="s" s="2">
-        <v>1034</v>
+        <v>1016</v>
       </c>
       <c r="AH594" t="s" s="2">
         <v>73</v>
@@ -66671,13 +66841,13 @@
     </row>
     <row r="595">
       <c r="A595" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B595" t="s" s="2">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="C595" t="s" s="2">
-        <v>1040</v>
+        <v>1017</v>
       </c>
       <c r="D595" s="2"/>
       <c r="E595" t="s" s="2">
@@ -66685,7 +66855,7 @@
       </c>
       <c r="F595" s="2"/>
       <c r="G595" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H595" t="s" s="2">
         <v>80</v>
@@ -66703,14 +66873,14 @@
         <v>138</v>
       </c>
       <c r="M595" t="s" s="2">
-        <v>1041</v>
+        <v>1018</v>
       </c>
       <c r="N595" t="s" s="2">
-        <v>1042</v>
+        <v>1019</v>
       </c>
       <c r="O595" s="2"/>
       <c r="P595" t="s" s="2">
-        <v>1043</v>
+        <v>1020</v>
       </c>
       <c r="Q595" t="s" s="2">
         <v>21</v>
@@ -66759,7 +66929,7 @@
         <v>21</v>
       </c>
       <c r="AG595" t="s" s="2">
-        <v>1040</v>
+        <v>1021</v>
       </c>
       <c r="AH595" t="s" s="2">
         <v>73</v>
@@ -66776,13 +66946,13 @@
     </row>
     <row r="596">
       <c r="A596" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B596" t="s" s="2">
-        <v>1044</v>
+        <v>1022</v>
       </c>
       <c r="C596" t="s" s="2">
-        <v>1044</v>
+        <v>1022</v>
       </c>
       <c r="D596" s="2"/>
       <c r="E596" t="s" s="2">
@@ -66790,13 +66960,13 @@
       </c>
       <c r="F596" s="2"/>
       <c r="G596" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H596" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I596" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="J596" t="s" s="2">
         <v>21</v>
@@ -66805,17 +66975,19 @@
         <v>81</v>
       </c>
       <c r="L596" t="s" s="2">
-        <v>1045</v>
+        <v>750</v>
       </c>
       <c r="M596" t="s" s="2">
-        <v>1046</v>
+        <v>1023</v>
       </c>
       <c r="N596" t="s" s="2">
-        <v>1047</v>
-      </c>
-      <c r="O596" s="2"/>
+        <v>1024</v>
+      </c>
+      <c r="O596" t="s" s="2">
+        <v>1025</v>
+      </c>
       <c r="P596" t="s" s="2">
-        <v>1048</v>
+        <v>1026</v>
       </c>
       <c r="Q596" t="s" s="2">
         <v>21</v>
@@ -66864,10 +67036,10 @@
         <v>21</v>
       </c>
       <c r="AG596" t="s" s="2">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="AH596" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AI596" t="s" s="2">
         <v>80</v>
@@ -66881,13 +67053,13 @@
     </row>
     <row r="597">
       <c r="A597" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B597" t="s" s="2">
-        <v>1049</v>
+        <v>1028</v>
       </c>
       <c r="C597" t="s" s="2">
-        <v>1049</v>
+        <v>1028</v>
       </c>
       <c r="D597" s="2"/>
       <c r="E597" t="s" s="2">
@@ -66913,16 +67085,16 @@
         <v>138</v>
       </c>
       <c r="M597" t="s" s="2">
-        <v>1050</v>
+        <v>1029</v>
       </c>
       <c r="N597" t="s" s="2">
-        <v>1051</v>
+        <v>1030</v>
       </c>
       <c r="O597" t="s" s="2">
-        <v>1052</v>
+        <v>1031</v>
       </c>
       <c r="P597" t="s" s="2">
-        <v>1053</v>
+        <v>1032</v>
       </c>
       <c r="Q597" t="s" s="2">
         <v>21</v>
@@ -66971,7 +67143,7 @@
         <v>21</v>
       </c>
       <c r="AG597" t="s" s="2">
-        <v>1049</v>
+        <v>1033</v>
       </c>
       <c r="AH597" t="s" s="2">
         <v>73</v>
@@ -66988,13 +67160,13 @@
     </row>
     <row r="598">
       <c r="A598" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B598" t="s" s="2">
-        <v>1054</v>
+        <v>1034</v>
       </c>
       <c r="C598" t="s" s="2">
-        <v>1054</v>
+        <v>1034</v>
       </c>
       <c r="D598" s="2"/>
       <c r="E598" t="s" s="2">
@@ -67014,22 +67186,22 @@
         <v>21</v>
       </c>
       <c r="K598" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L598" t="s" s="2">
-        <v>907</v>
+        <v>1035</v>
       </c>
       <c r="M598" t="s" s="2">
-        <v>1055</v>
+        <v>1036</v>
       </c>
       <c r="N598" t="s" s="2">
-        <v>1056</v>
+        <v>1037</v>
       </c>
       <c r="O598" t="s" s="2">
-        <v>1057</v>
+        <v>1038</v>
       </c>
       <c r="P598" t="s" s="2">
-        <v>1058</v>
+        <v>1039</v>
       </c>
       <c r="Q598" t="s" s="2">
         <v>21</v>
@@ -67054,13 +67226,13 @@
         <v>21</v>
       </c>
       <c r="Y598" t="s" s="2">
-        <v>789</v>
+        <v>21</v>
       </c>
       <c r="Z598" t="s" s="2">
-        <v>1059</v>
+        <v>21</v>
       </c>
       <c r="AA598" t="s" s="2">
-        <v>1060</v>
+        <v>21</v>
       </c>
       <c r="AB598" t="s" s="2">
         <v>21</v>
@@ -67078,7 +67250,7 @@
         <v>21</v>
       </c>
       <c r="AG598" t="s" s="2">
-        <v>1054</v>
+        <v>1034</v>
       </c>
       <c r="AH598" t="s" s="2">
         <v>73</v>
@@ -67095,13 +67267,13 @@
     </row>
     <row r="599">
       <c r="A599" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B599" t="s" s="2">
-        <v>1061</v>
+        <v>1040</v>
       </c>
       <c r="C599" t="s" s="2">
-        <v>1061</v>
+        <v>1040</v>
       </c>
       <c r="D599" s="2"/>
       <c r="E599" t="s" s="2">
@@ -67124,17 +67296,19 @@
         <v>81</v>
       </c>
       <c r="L599" t="s" s="2">
-        <v>1062</v>
+        <v>1041</v>
       </c>
       <c r="M599" t="s" s="2">
-        <v>1063</v>
+        <v>1042</v>
       </c>
       <c r="N599" t="s" s="2">
-        <v>1064</v>
-      </c>
-      <c r="O599" s="2"/>
+        <v>1043</v>
+      </c>
+      <c r="O599" t="s" s="2">
+        <v>1044</v>
+      </c>
       <c r="P599" t="s" s="2">
-        <v>1065</v>
+        <v>1045</v>
       </c>
       <c r="Q599" t="s" s="2">
         <v>21</v>
@@ -67183,7 +67357,7 @@
         <v>21</v>
       </c>
       <c r="AG599" t="s" s="2">
-        <v>1061</v>
+        <v>1040</v>
       </c>
       <c r="AH599" t="s" s="2">
         <v>73</v>
@@ -67200,13 +67374,13 @@
     </row>
     <row r="600">
       <c r="A600" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B600" t="s" s="2">
-        <v>1066</v>
+        <v>1046</v>
       </c>
       <c r="C600" t="s" s="2">
-        <v>1066</v>
+        <v>1046</v>
       </c>
       <c r="D600" s="2"/>
       <c r="E600" t="s" s="2">
@@ -67214,7 +67388,7 @@
       </c>
       <c r="F600" s="2"/>
       <c r="G600" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H600" t="s" s="2">
         <v>80</v>
@@ -67229,19 +67403,17 @@
         <v>81</v>
       </c>
       <c r="L600" t="s" s="2">
-        <v>1067</v>
+        <v>138</v>
       </c>
       <c r="M600" t="s" s="2">
-        <v>1068</v>
+        <v>1047</v>
       </c>
       <c r="N600" t="s" s="2">
-        <v>1069</v>
-      </c>
-      <c r="O600" t="s" s="2">
-        <v>1070</v>
-      </c>
+        <v>1048</v>
+      </c>
+      <c r="O600" s="2"/>
       <c r="P600" t="s" s="2">
-        <v>1071</v>
+        <v>1049</v>
       </c>
       <c r="Q600" t="s" s="2">
         <v>21</v>
@@ -67290,13 +67462,13 @@
         <v>21</v>
       </c>
       <c r="AG600" t="s" s="2">
-        <v>1066</v>
+        <v>1046</v>
       </c>
       <c r="AH600" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AI600" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ600" t="s" s="2">
         <v>21</v>
@@ -67307,13 +67479,13 @@
     </row>
     <row r="601">
       <c r="A601" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B601" t="s" s="2">
-        <v>1072</v>
+        <v>1050</v>
       </c>
       <c r="C601" t="s" s="2">
-        <v>1072</v>
+        <v>1050</v>
       </c>
       <c r="D601" s="2"/>
       <c r="E601" t="s" s="2">
@@ -67321,31 +67493,33 @@
       </c>
       <c r="F601" s="2"/>
       <c r="G601" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H601" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I601" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="J601" t="s" s="2">
         <v>21</v>
       </c>
       <c r="K601" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L601" t="s" s="2">
-        <v>138</v>
+        <v>1051</v>
       </c>
       <c r="M601" t="s" s="2">
-        <v>139</v>
+        <v>1052</v>
       </c>
       <c r="N601" t="s" s="2">
-        <v>140</v>
+        <v>1053</v>
       </c>
       <c r="O601" s="2"/>
-      <c r="P601" s="2"/>
+      <c r="P601" t="s" s="2">
+        <v>1054</v>
+      </c>
       <c r="Q601" t="s" s="2">
         <v>21</v>
       </c>
@@ -67393,10 +67567,10 @@
         <v>21</v>
       </c>
       <c r="AG601" t="s" s="2">
-        <v>141</v>
+        <v>1050</v>
       </c>
       <c r="AH601" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI601" t="s" s="2">
         <v>80</v>
@@ -67405,29 +67579,29 @@
         <v>21</v>
       </c>
       <c r="AK601" t="s" s="2">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B602" t="s" s="2">
-        <v>1073</v>
+        <v>1055</v>
       </c>
       <c r="C602" t="s" s="2">
-        <v>1073</v>
+        <v>1055</v>
       </c>
       <c r="D602" s="2"/>
       <c r="E602" t="s" s="2">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="F602" s="2"/>
       <c r="G602" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H602" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I602" t="s" s="2">
         <v>21</v>
@@ -67436,21 +67610,23 @@
         <v>21</v>
       </c>
       <c r="K602" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L602" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M602" t="s" s="2">
-        <v>145</v>
+        <v>1056</v>
       </c>
       <c r="N602" t="s" s="2">
-        <v>146</v>
+        <v>1057</v>
       </c>
       <c r="O602" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="P602" s="2"/>
+        <v>1058</v>
+      </c>
+      <c r="P602" t="s" s="2">
+        <v>1059</v>
+      </c>
       <c r="Q602" t="s" s="2">
         <v>21</v>
       </c>
@@ -67486,42 +67662,42 @@
         <v>21</v>
       </c>
       <c r="AC602" t="s" s="2">
-        <v>743</v>
+        <v>21</v>
       </c>
       <c r="AD602" t="s" s="2">
-        <v>744</v>
+        <v>21</v>
       </c>
       <c r="AE602" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AF602" t="s" s="2">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="AG602" t="s" s="2">
-        <v>148</v>
+        <v>1055</v>
       </c>
       <c r="AH602" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI602" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ602" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK602" t="s" s="2">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B603" t="s" s="2">
-        <v>1074</v>
+        <v>1060</v>
       </c>
       <c r="C603" t="s" s="2">
-        <v>1074</v>
+        <v>1060</v>
       </c>
       <c r="D603" s="2"/>
       <c r="E603" t="s" s="2">
@@ -67541,21 +67717,23 @@
         <v>21</v>
       </c>
       <c r="K603" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L603" t="s" s="2">
-        <v>138</v>
+        <v>758</v>
       </c>
       <c r="M603" t="s" s="2">
-        <v>1075</v>
+        <v>1061</v>
       </c>
       <c r="N603" t="s" s="2">
-        <v>1076</v>
+        <v>1062</v>
       </c>
       <c r="O603" t="s" s="2">
-        <v>1077</v>
-      </c>
-      <c r="P603" s="2"/>
+        <v>1063</v>
+      </c>
+      <c r="P603" t="s" s="2">
+        <v>1064</v>
+      </c>
       <c r="Q603" t="s" s="2">
         <v>21</v>
       </c>
@@ -67579,13 +67757,13 @@
         <v>21</v>
       </c>
       <c r="Y603" t="s" s="2">
-        <v>21</v>
+        <v>796</v>
       </c>
       <c r="Z603" t="s" s="2">
-        <v>21</v>
+        <v>1065</v>
       </c>
       <c r="AA603" t="s" s="2">
-        <v>21</v>
+        <v>1066</v>
       </c>
       <c r="AB603" t="s" s="2">
         <v>21</v>
@@ -67603,7 +67781,7 @@
         <v>21</v>
       </c>
       <c r="AG603" t="s" s="2">
-        <v>1078</v>
+        <v>1060</v>
       </c>
       <c r="AH603" t="s" s="2">
         <v>73</v>
@@ -67612,7 +67790,7 @@
         <v>80</v>
       </c>
       <c r="AJ603" t="s" s="2">
-        <v>1079</v>
+        <v>21</v>
       </c>
       <c r="AK603" t="s" s="2">
         <v>92</v>
@@ -67620,13 +67798,13 @@
     </row>
     <row r="604">
       <c r="A604" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B604" t="s" s="2">
-        <v>1080</v>
+        <v>1067</v>
       </c>
       <c r="C604" t="s" s="2">
-        <v>1080</v>
+        <v>1067</v>
       </c>
       <c r="D604" s="2"/>
       <c r="E604" t="s" s="2">
@@ -67649,18 +67827,18 @@
         <v>81</v>
       </c>
       <c r="L604" t="s" s="2">
-        <v>94</v>
+        <v>1068</v>
       </c>
       <c r="M604" t="s" s="2">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="N604" t="s" s="2">
-        <v>1082</v>
-      </c>
-      <c r="O604" t="s" s="2">
-        <v>1083</v>
-      </c>
-      <c r="P604" s="2"/>
+        <v>1070</v>
+      </c>
+      <c r="O604" s="2"/>
+      <c r="P604" t="s" s="2">
+        <v>1071</v>
+      </c>
       <c r="Q604" t="s" s="2">
         <v>21</v>
       </c>
@@ -67684,13 +67862,13 @@
         <v>21</v>
       </c>
       <c r="Y604" t="s" s="2">
-        <v>789</v>
+        <v>21</v>
       </c>
       <c r="Z604" t="s" s="2">
-        <v>1084</v>
+        <v>21</v>
       </c>
       <c r="AA604" t="s" s="2">
-        <v>1085</v>
+        <v>21</v>
       </c>
       <c r="AB604" t="s" s="2">
         <v>21</v>
@@ -67708,7 +67886,7 @@
         <v>21</v>
       </c>
       <c r="AG604" t="s" s="2">
-        <v>1086</v>
+        <v>1067</v>
       </c>
       <c r="AH604" t="s" s="2">
         <v>73</v>
@@ -67725,13 +67903,13 @@
     </row>
     <row r="605">
       <c r="A605" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B605" t="s" s="2">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="C605" t="s" s="2">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="D605" s="2"/>
       <c r="E605" t="s" s="2">
@@ -67739,7 +67917,7 @@
       </c>
       <c r="F605" s="2"/>
       <c r="G605" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H605" t="s" s="2">
         <v>80</v>
@@ -67754,18 +67932,20 @@
         <v>81</v>
       </c>
       <c r="L605" t="s" s="2">
-        <v>109</v>
+        <v>1073</v>
       </c>
       <c r="M605" t="s" s="2">
-        <v>1088</v>
+        <v>1074</v>
       </c>
       <c r="N605" t="s" s="2">
-        <v>1089</v>
+        <v>1075</v>
       </c>
       <c r="O605" t="s" s="2">
-        <v>1090</v>
-      </c>
-      <c r="P605" s="2"/>
+        <v>1076</v>
+      </c>
+      <c r="P605" t="s" s="2">
+        <v>1077</v>
+      </c>
       <c r="Q605" t="s" s="2">
         <v>21</v>
       </c>
@@ -67813,13 +67993,13 @@
         <v>21</v>
       </c>
       <c r="AG605" t="s" s="2">
-        <v>1091</v>
+        <v>1072</v>
       </c>
       <c r="AH605" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI605" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ605" t="s" s="2">
         <v>21</v>
@@ -67830,13 +68010,13 @@
     </row>
     <row r="606">
       <c r="A606" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="C606" t="s" s="2">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="D606" s="2"/>
       <c r="E606" t="s" s="2">
@@ -67844,7 +68024,7 @@
       </c>
       <c r="F606" s="2"/>
       <c r="G606" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H606" t="s" s="2">
         <v>80</v>
@@ -67856,20 +68036,18 @@
         <v>21</v>
       </c>
       <c r="K606" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L606" t="s" s="2">
         <v>138</v>
       </c>
       <c r="M606" t="s" s="2">
-        <v>1093</v>
+        <v>139</v>
       </c>
       <c r="N606" t="s" s="2">
-        <v>1094</v>
-      </c>
-      <c r="O606" t="s" s="2">
-        <v>1095</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O606" s="2"/>
       <c r="P606" s="2"/>
       <c r="Q606" t="s" s="2">
         <v>21</v>
@@ -67918,7 +68096,7 @@
         <v>21</v>
       </c>
       <c r="AG606" t="s" s="2">
-        <v>1096</v>
+        <v>141</v>
       </c>
       <c r="AH606" t="s" s="2">
         <v>73</v>
@@ -67930,29 +68108,29 @@
         <v>21</v>
       </c>
       <c r="AK606" t="s" s="2">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B607" t="s" s="2">
-        <v>1097</v>
+        <v>1079</v>
       </c>
       <c r="C607" t="s" s="2">
-        <v>1097</v>
+        <v>1079</v>
       </c>
       <c r="D607" s="2"/>
       <c r="E607" t="s" s="2">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="F607" s="2"/>
       <c r="G607" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H607" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I607" t="s" s="2">
         <v>21</v>
@@ -67964,20 +68142,18 @@
         <v>21</v>
       </c>
       <c r="L607" t="s" s="2">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M607" t="s" s="2">
-        <v>1098</v>
+        <v>145</v>
       </c>
       <c r="N607" t="s" s="2">
-        <v>1099</v>
+        <v>146</v>
       </c>
       <c r="O607" t="s" s="2">
-        <v>1100</v>
-      </c>
-      <c r="P607" t="s" s="2">
-        <v>1101</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="P607" s="2"/>
       <c r="Q607" t="s" s="2">
         <v>21</v>
       </c>
@@ -68013,19 +68189,19 @@
         <v>21</v>
       </c>
       <c r="AC607" t="s" s="2">
-        <v>21</v>
+        <v>743</v>
       </c>
       <c r="AD607" t="s" s="2">
-        <v>21</v>
+        <v>744</v>
       </c>
       <c r="AE607" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AF607" t="s" s="2">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="AG607" t="s" s="2">
-        <v>1097</v>
+        <v>148</v>
       </c>
       <c r="AH607" t="s" s="2">
         <v>73</v>
@@ -68037,18 +68213,18 @@
         <v>21</v>
       </c>
       <c r="AK607" t="s" s="2">
-        <v>92</v>
+        <v>149</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B608" t="s" s="2">
-        <v>1102</v>
+        <v>1080</v>
       </c>
       <c r="C608" t="s" s="2">
-        <v>1102</v>
+        <v>1080</v>
       </c>
       <c r="D608" s="2"/>
       <c r="E608" t="s" s="2">
@@ -68068,18 +68244,20 @@
         <v>21</v>
       </c>
       <c r="K608" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L608" t="s" s="2">
         <v>138</v>
       </c>
       <c r="M608" t="s" s="2">
-        <v>139</v>
+        <v>1081</v>
       </c>
       <c r="N608" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O608" s="2"/>
+        <v>1082</v>
+      </c>
+      <c r="O608" t="s" s="2">
+        <v>1083</v>
+      </c>
       <c r="P608" s="2"/>
       <c r="Q608" t="s" s="2">
         <v>21</v>
@@ -68128,7 +68306,7 @@
         <v>21</v>
       </c>
       <c r="AG608" t="s" s="2">
-        <v>141</v>
+        <v>1084</v>
       </c>
       <c r="AH608" t="s" s="2">
         <v>73</v>
@@ -68137,32 +68315,32 @@
         <v>80</v>
       </c>
       <c r="AJ608" t="s" s="2">
-        <v>21</v>
+        <v>1085</v>
       </c>
       <c r="AK608" t="s" s="2">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B609" t="s" s="2">
-        <v>1103</v>
+        <v>1086</v>
       </c>
       <c r="C609" t="s" s="2">
-        <v>1103</v>
+        <v>1086</v>
       </c>
       <c r="D609" s="2"/>
       <c r="E609" t="s" s="2">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="F609" s="2"/>
       <c r="G609" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H609" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I609" t="s" s="2">
         <v>21</v>
@@ -68171,19 +68349,19 @@
         <v>21</v>
       </c>
       <c r="K609" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L609" t="s" s="2">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="M609" t="s" s="2">
-        <v>145</v>
+        <v>1087</v>
       </c>
       <c r="N609" t="s" s="2">
-        <v>146</v>
+        <v>1088</v>
       </c>
       <c r="O609" t="s" s="2">
-        <v>147</v>
+        <v>1089</v>
       </c>
       <c r="P609" s="2"/>
       <c r="Q609" t="s" s="2">
@@ -68209,13 +68387,13 @@
         <v>21</v>
       </c>
       <c r="Y609" t="s" s="2">
-        <v>21</v>
+        <v>796</v>
       </c>
       <c r="Z609" t="s" s="2">
-        <v>21</v>
+        <v>1090</v>
       </c>
       <c r="AA609" t="s" s="2">
-        <v>21</v>
+        <v>1091</v>
       </c>
       <c r="AB609" t="s" s="2">
         <v>21</v>
@@ -68233,66 +68411,64 @@
         <v>21</v>
       </c>
       <c r="AG609" t="s" s="2">
-        <v>148</v>
+        <v>1092</v>
       </c>
       <c r="AH609" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI609" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ609" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK609" t="s" s="2">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B610" t="s" s="2">
-        <v>1104</v>
+        <v>1093</v>
       </c>
       <c r="C610" t="s" s="2">
-        <v>1104</v>
+        <v>1093</v>
       </c>
       <c r="D610" s="2"/>
       <c r="E610" t="s" s="2">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="F610" s="2"/>
       <c r="G610" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H610" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I610" t="s" s="2">
         <v>21</v>
       </c>
       <c r="J610" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K610" t="s" s="2">
         <v>81</v>
       </c>
       <c r="L610" t="s" s="2">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="M610" t="s" s="2">
-        <v>152</v>
+        <v>1094</v>
       </c>
       <c r="N610" t="s" s="2">
-        <v>153</v>
+        <v>1095</v>
       </c>
       <c r="O610" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="P610" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>1096</v>
+      </c>
+      <c r="P610" s="2"/>
       <c r="Q610" t="s" s="2">
         <v>21</v>
       </c>
@@ -68340,30 +68516,30 @@
         <v>21</v>
       </c>
       <c r="AG610" t="s" s="2">
-        <v>155</v>
+        <v>1097</v>
       </c>
       <c r="AH610" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI610" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ610" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK610" t="s" s="2">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B611" t="s" s="2">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="C611" t="s" s="2">
-        <v>1105</v>
+        <v>1098</v>
       </c>
       <c r="D611" s="2"/>
       <c r="E611" t="s" s="2">
@@ -68386,18 +68562,18 @@
         <v>81</v>
       </c>
       <c r="L611" t="s" s="2">
-        <v>907</v>
+        <v>138</v>
       </c>
       <c r="M611" t="s" s="2">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="N611" t="s" s="2">
-        <v>1107</v>
-      </c>
-      <c r="O611" s="2"/>
-      <c r="P611" t="s" s="2">
-        <v>1108</v>
-      </c>
+        <v>1100</v>
+      </c>
+      <c r="O611" t="s" s="2">
+        <v>1101</v>
+      </c>
+      <c r="P611" s="2"/>
       <c r="Q611" t="s" s="2">
         <v>21</v>
       </c>
@@ -68406,7 +68582,7 @@
         <v>21</v>
       </c>
       <c r="T611" t="s" s="2">
-        <v>1109</v>
+        <v>21</v>
       </c>
       <c r="U611" t="s" s="2">
         <v>21</v>
@@ -68421,13 +68597,13 @@
         <v>21</v>
       </c>
       <c r="Y611" t="s" s="2">
-        <v>789</v>
+        <v>21</v>
       </c>
       <c r="Z611" t="s" s="2">
-        <v>1110</v>
+        <v>21</v>
       </c>
       <c r="AA611" t="s" s="2">
-        <v>1111</v>
+        <v>21</v>
       </c>
       <c r="AB611" t="s" s="2">
         <v>21</v>
@@ -68445,10 +68621,10 @@
         <v>21</v>
       </c>
       <c r="AG611" t="s" s="2">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="AH611" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AI611" t="s" s="2">
         <v>80</v>
@@ -68462,13 +68638,13 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B612" t="s" s="2">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="C612" t="s" s="2">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="D612" s="2"/>
       <c r="E612" t="s" s="2">
@@ -68476,7 +68652,7 @@
       </c>
       <c r="F612" s="2"/>
       <c r="G612" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H612" t="s" s="2">
         <v>80</v>
@@ -68488,22 +68664,22 @@
         <v>21</v>
       </c>
       <c r="K612" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L612" t="s" s="2">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M612" t="s" s="2">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="N612" t="s" s="2">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="O612" t="s" s="2">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="P612" t="s" s="2">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="Q612" t="s" s="2">
         <v>21</v>
@@ -68552,13 +68728,13 @@
         <v>21</v>
       </c>
       <c r="AG612" t="s" s="2">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="AH612" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AI612" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ612" t="s" s="2">
         <v>21</v>
@@ -68569,13 +68745,13 @@
     </row>
     <row r="613">
       <c r="A613" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B613" t="s" s="2">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="C613" t="s" s="2">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="D613" s="2"/>
       <c r="E613" t="s" s="2">
@@ -68583,7 +68759,7 @@
       </c>
       <c r="F613" s="2"/>
       <c r="G613" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H613" t="s" s="2">
         <v>80</v>
@@ -68595,21 +68771,19 @@
         <v>21</v>
       </c>
       <c r="K613" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L613" t="s" s="2">
         <v>138</v>
       </c>
       <c r="M613" t="s" s="2">
-        <v>1117</v>
+        <v>139</v>
       </c>
       <c r="N613" t="s" s="2">
-        <v>1118</v>
+        <v>140</v>
       </c>
       <c r="O613" s="2"/>
-      <c r="P613" t="s" s="2">
-        <v>1119</v>
-      </c>
+      <c r="P613" s="2"/>
       <c r="Q613" t="s" s="2">
         <v>21</v>
       </c>
@@ -68657,7 +68831,7 @@
         <v>21</v>
       </c>
       <c r="AG613" t="s" s="2">
-        <v>1116</v>
+        <v>141</v>
       </c>
       <c r="AH613" t="s" s="2">
         <v>73</v>
@@ -68669,29 +68843,29 @@
         <v>21</v>
       </c>
       <c r="AK613" t="s" s="2">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B614" t="s" s="2">
-        <v>1120</v>
+        <v>1109</v>
       </c>
       <c r="C614" t="s" s="2">
-        <v>1120</v>
+        <v>1109</v>
       </c>
       <c r="D614" s="2"/>
       <c r="E614" t="s" s="2">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="F614" s="2"/>
       <c r="G614" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H614" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I614" t="s" s="2">
         <v>21</v>
@@ -68700,21 +68874,21 @@
         <v>21</v>
       </c>
       <c r="K614" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L614" t="s" s="2">
-        <v>1121</v>
+        <v>144</v>
       </c>
       <c r="M614" t="s" s="2">
-        <v>1122</v>
+        <v>145</v>
       </c>
       <c r="N614" t="s" s="2">
-        <v>1123</v>
-      </c>
-      <c r="O614" s="2"/>
-      <c r="P614" t="s" s="2">
-        <v>1124</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O614" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="P614" s="2"/>
       <c r="Q614" t="s" s="2">
         <v>21</v>
       </c>
@@ -68762,63 +68936,65 @@
         <v>21</v>
       </c>
       <c r="AG614" t="s" s="2">
-        <v>1120</v>
+        <v>148</v>
       </c>
       <c r="AH614" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI614" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ614" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK614" t="s" s="2">
-        <v>92</v>
+        <v>149</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B615" t="s" s="2">
-        <v>1125</v>
+        <v>1110</v>
       </c>
       <c r="C615" t="s" s="2">
-        <v>1125</v>
+        <v>1110</v>
       </c>
       <c r="D615" s="2"/>
       <c r="E615" t="s" s="2">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="F615" s="2"/>
       <c r="G615" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H615" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I615" t="s" s="2">
         <v>21</v>
       </c>
       <c r="J615" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="K615" t="s" s="2">
         <v>81</v>
       </c>
       <c r="L615" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M615" t="s" s="2">
-        <v>1126</v>
+        <v>152</v>
       </c>
       <c r="N615" t="s" s="2">
-        <v>1127</v>
-      </c>
-      <c r="O615" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O615" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P615" t="s" s="2">
-        <v>1128</v>
+        <v>154</v>
       </c>
       <c r="Q615" t="s" s="2">
         <v>21</v>
@@ -68867,41 +69043,41 @@
         <v>21</v>
       </c>
       <c r="AG615" t="s" s="2">
-        <v>1125</v>
+        <v>155</v>
       </c>
       <c r="AH615" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI615" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ615" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK615" t="s" s="2">
-        <v>92</v>
+        <v>149</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B616" t="s" s="2">
-        <v>1129</v>
+        <v>1111</v>
       </c>
       <c r="C616" t="s" s="2">
-        <v>1129</v>
+        <v>1111</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" t="s" s="2">
-        <v>1130</v>
+        <v>21</v>
       </c>
       <c r="F616" s="2"/>
       <c r="G616" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H616" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I616" t="s" s="2">
         <v>21</v>
@@ -68910,22 +69086,20 @@
         <v>21</v>
       </c>
       <c r="K616" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L616" t="s" s="2">
-        <v>133</v>
+        <v>758</v>
       </c>
       <c r="M616" t="s" s="2">
-        <v>1131</v>
+        <v>1112</v>
       </c>
       <c r="N616" t="s" s="2">
-        <v>1132</v>
-      </c>
-      <c r="O616" t="s" s="2">
-        <v>1133</v>
-      </c>
+        <v>1113</v>
+      </c>
+      <c r="O616" s="2"/>
       <c r="P616" t="s" s="2">
-        <v>1134</v>
+        <v>1114</v>
       </c>
       <c r="Q616" t="s" s="2">
         <v>21</v>
@@ -68935,7 +69109,7 @@
         <v>21</v>
       </c>
       <c r="T616" t="s" s="2">
-        <v>21</v>
+        <v>1115</v>
       </c>
       <c r="U616" t="s" s="2">
         <v>21</v>
@@ -68950,13 +69124,13 @@
         <v>21</v>
       </c>
       <c r="Y616" t="s" s="2">
-        <v>21</v>
+        <v>796</v>
       </c>
       <c r="Z616" t="s" s="2">
-        <v>21</v>
+        <v>1116</v>
       </c>
       <c r="AA616" t="s" s="2">
-        <v>21</v>
+        <v>1117</v>
       </c>
       <c r="AB616" t="s" s="2">
         <v>21</v>
@@ -68974,13 +69148,13 @@
         <v>21</v>
       </c>
       <c r="AG616" t="s" s="2">
-        <v>1129</v>
+        <v>1111</v>
       </c>
       <c r="AH616" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI616" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ616" t="s" s="2">
         <v>21</v>
@@ -68991,13 +69165,13 @@
     </row>
     <row r="617">
       <c r="A617" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B617" t="s" s="2">
-        <v>1135</v>
+        <v>1118</v>
       </c>
       <c r="C617" t="s" s="2">
-        <v>1135</v>
+        <v>1118</v>
       </c>
       <c r="D617" s="2"/>
       <c r="E617" t="s" s="2">
@@ -69005,7 +69179,7 @@
       </c>
       <c r="F617" s="2"/>
       <c r="G617" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H617" t="s" s="2">
         <v>80</v>
@@ -69017,19 +69191,23 @@
         <v>21</v>
       </c>
       <c r="K617" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L617" t="s" s="2">
         <v>138</v>
       </c>
       <c r="M617" t="s" s="2">
-        <v>139</v>
+        <v>1119</v>
       </c>
       <c r="N617" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O617" s="2"/>
-      <c r="P617" s="2"/>
+        <v>1119</v>
+      </c>
+      <c r="O617" t="s" s="2">
+        <v>1120</v>
+      </c>
+      <c r="P617" t="s" s="2">
+        <v>1121</v>
+      </c>
       <c r="Q617" t="s" s="2">
         <v>21</v>
       </c>
@@ -69077,10 +69255,10 @@
         <v>21</v>
       </c>
       <c r="AG617" t="s" s="2">
-        <v>141</v>
+        <v>1118</v>
       </c>
       <c r="AH617" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AI617" t="s" s="2">
         <v>80</v>
@@ -69089,29 +69267,29 @@
         <v>21</v>
       </c>
       <c r="AK617" t="s" s="2">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B618" t="s" s="2">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="C618" t="s" s="2">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="D618" s="2"/>
       <c r="E618" t="s" s="2">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="F618" s="2"/>
       <c r="G618" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H618" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I618" t="s" s="2">
         <v>21</v>
@@ -69120,21 +69298,21 @@
         <v>21</v>
       </c>
       <c r="K618" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L618" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M618" t="s" s="2">
-        <v>145</v>
+        <v>1123</v>
       </c>
       <c r="N618" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O618" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="P618" s="2"/>
+        <v>1124</v>
+      </c>
+      <c r="O618" s="2"/>
+      <c r="P618" t="s" s="2">
+        <v>1125</v>
+      </c>
       <c r="Q618" t="s" s="2">
         <v>21</v>
       </c>
@@ -69182,65 +69360,63 @@
         <v>21</v>
       </c>
       <c r="AG618" t="s" s="2">
-        <v>148</v>
+        <v>1122</v>
       </c>
       <c r="AH618" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI618" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ618" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK618" t="s" s="2">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="C619" t="s" s="2">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" t="s" s="2">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="F619" s="2"/>
       <c r="G619" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H619" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I619" t="s" s="2">
         <v>21</v>
       </c>
       <c r="J619" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K619" t="s" s="2">
         <v>81</v>
       </c>
       <c r="L619" t="s" s="2">
-        <v>144</v>
+        <v>1127</v>
       </c>
       <c r="M619" t="s" s="2">
-        <v>152</v>
+        <v>1128</v>
       </c>
       <c r="N619" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O619" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>1129</v>
+      </c>
+      <c r="O619" s="2"/>
       <c r="P619" t="s" s="2">
-        <v>154</v>
+        <v>1130</v>
       </c>
       <c r="Q619" t="s" s="2">
         <v>21</v>
@@ -69289,30 +69465,30 @@
         <v>21</v>
       </c>
       <c r="AG619" t="s" s="2">
-        <v>155</v>
+        <v>1126</v>
       </c>
       <c r="AH619" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI619" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ619" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK619" t="s" s="2">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B620" t="s" s="2">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="C620" t="s" s="2">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="D620" s="2"/>
       <c r="E620" t="s" s="2">
@@ -69335,19 +69511,17 @@
         <v>81</v>
       </c>
       <c r="L620" t="s" s="2">
-        <v>907</v>
+        <v>138</v>
       </c>
       <c r="M620" t="s" s="2">
-        <v>1139</v>
+        <v>1132</v>
       </c>
       <c r="N620" t="s" s="2">
-        <v>1140</v>
-      </c>
-      <c r="O620" t="s" s="2">
-        <v>1141</v>
-      </c>
+        <v>1133</v>
+      </c>
+      <c r="O620" s="2"/>
       <c r="P620" t="s" s="2">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="Q620" t="s" s="2">
         <v>21</v>
@@ -69372,13 +69546,13 @@
         <v>21</v>
       </c>
       <c r="Y620" t="s" s="2">
-        <v>789</v>
+        <v>21</v>
       </c>
       <c r="Z620" t="s" s="2">
-        <v>1143</v>
+        <v>21</v>
       </c>
       <c r="AA620" t="s" s="2">
-        <v>1144</v>
+        <v>21</v>
       </c>
       <c r="AB620" t="s" s="2">
         <v>21</v>
@@ -69396,7 +69570,7 @@
         <v>21</v>
       </c>
       <c r="AG620" t="s" s="2">
-        <v>1138</v>
+        <v>1131</v>
       </c>
       <c r="AH620" t="s" s="2">
         <v>73</v>
@@ -69413,24 +69587,24 @@
     </row>
     <row r="621">
       <c r="A621" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="C621" t="s" s="2">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="D621" s="2"/>
       <c r="E621" t="s" s="2">
-        <v>21</v>
+        <v>1136</v>
       </c>
       <c r="F621" s="2"/>
       <c r="G621" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H621" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I621" t="s" s="2">
         <v>21</v>
@@ -69439,22 +69613,22 @@
         <v>21</v>
       </c>
       <c r="K621" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L621" t="s" s="2">
-        <v>1146</v>
+        <v>133</v>
       </c>
       <c r="M621" t="s" s="2">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="N621" t="s" s="2">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="O621" t="s" s="2">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="P621" t="s" s="2">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="Q621" t="s" s="2">
         <v>21</v>
@@ -69503,13 +69677,13 @@
         <v>21</v>
       </c>
       <c r="AG621" t="s" s="2">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="AH621" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AI621" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ621" t="s" s="2">
         <v>21</v>
@@ -69520,13 +69694,13 @@
     </row>
     <row r="622">
       <c r="A622" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="C622" t="s" s="2">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="D622" s="2"/>
       <c r="E622" t="s" s="2">
@@ -69537,7 +69711,7 @@
         <v>73</v>
       </c>
       <c r="H622" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I622" t="s" s="2">
         <v>21</v>
@@ -69549,18 +69723,16 @@
         <v>21</v>
       </c>
       <c r="L622" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M622" t="s" s="2">
-        <v>1152</v>
+        <v>139</v>
       </c>
       <c r="N622" t="s" s="2">
-        <v>1153</v>
+        <v>140</v>
       </c>
       <c r="O622" s="2"/>
-      <c r="P622" t="s" s="2">
-        <v>1134</v>
-      </c>
+      <c r="P622" s="2"/>
       <c r="Q622" t="s" s="2">
         <v>21</v>
       </c>
@@ -69608,41 +69780,41 @@
         <v>21</v>
       </c>
       <c r="AG622" t="s" s="2">
-        <v>1151</v>
+        <v>141</v>
       </c>
       <c r="AH622" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI622" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ622" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK622" t="s" s="2">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="C623" t="s" s="2">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" t="s" s="2">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="F623" s="2"/>
       <c r="G623" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H623" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I623" t="s" s="2">
         <v>21</v>
@@ -69654,15 +69826,17 @@
         <v>21</v>
       </c>
       <c r="L623" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M623" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="N623" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O623" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="O623" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P623" s="2"/>
       <c r="Q623" t="s" s="2">
         <v>21</v>
@@ -69711,34 +69885,34 @@
         <v>21</v>
       </c>
       <c r="AG623" t="s" s="2">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="AH623" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI623" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ623" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK623" t="s" s="2">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="C624" t="s" s="2">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" t="s" s="2">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F624" s="2"/>
       <c r="G624" t="s" s="2">
@@ -69751,24 +69925,26 @@
         <v>21</v>
       </c>
       <c r="J624" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="K624" t="s" s="2">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L624" t="s" s="2">
         <v>144</v>
       </c>
       <c r="M624" t="s" s="2">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="N624" t="s" s="2">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="O624" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="P624" s="2"/>
+      <c r="P624" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="Q624" t="s" s="2">
         <v>21</v>
       </c>
@@ -69816,7 +69992,7 @@
         <v>21</v>
       </c>
       <c r="AG624" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AH624" t="s" s="2">
         <v>73</v>
@@ -69833,48 +70009,48 @@
     </row>
     <row r="625">
       <c r="A625" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="D625" s="2"/>
       <c r="E625" t="s" s="2">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="F625" s="2"/>
       <c r="G625" t="s" s="2">
         <v>73</v>
       </c>
       <c r="H625" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I625" t="s" s="2">
         <v>21</v>
       </c>
       <c r="J625" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K625" t="s" s="2">
         <v>81</v>
       </c>
       <c r="L625" t="s" s="2">
-        <v>144</v>
+        <v>758</v>
       </c>
       <c r="M625" t="s" s="2">
-        <v>152</v>
+        <v>1145</v>
       </c>
       <c r="N625" t="s" s="2">
-        <v>153</v>
+        <v>1146</v>
       </c>
       <c r="O625" t="s" s="2">
-        <v>147</v>
+        <v>1147</v>
       </c>
       <c r="P625" t="s" s="2">
-        <v>154</v>
+        <v>1148</v>
       </c>
       <c r="Q625" t="s" s="2">
         <v>21</v>
@@ -69899,13 +70075,13 @@
         <v>21</v>
       </c>
       <c r="Y625" t="s" s="2">
-        <v>21</v>
+        <v>796</v>
       </c>
       <c r="Z625" t="s" s="2">
-        <v>21</v>
+        <v>1149</v>
       </c>
       <c r="AA625" t="s" s="2">
-        <v>21</v>
+        <v>1150</v>
       </c>
       <c r="AB625" t="s" s="2">
         <v>21</v>
@@ -69923,30 +70099,30 @@
         <v>21</v>
       </c>
       <c r="AG625" t="s" s="2">
-        <v>155</v>
+        <v>1144</v>
       </c>
       <c r="AH625" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI625" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ625" t="s" s="2">
         <v>21</v>
       </c>
       <c r="AK625" t="s" s="2">
-        <v>149</v>
+        <v>92</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B626" t="s" s="2">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="C626" t="s" s="2">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="D626" s="2"/>
       <c r="E626" t="s" s="2">
@@ -69969,17 +70145,19 @@
         <v>81</v>
       </c>
       <c r="L626" t="s" s="2">
-        <v>907</v>
+        <v>1152</v>
       </c>
       <c r="M626" t="s" s="2">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="N626" t="s" s="2">
-        <v>1159</v>
-      </c>
-      <c r="O626" s="2"/>
+        <v>1154</v>
+      </c>
+      <c r="O626" t="s" s="2">
+        <v>1155</v>
+      </c>
       <c r="P626" t="s" s="2">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="Q626" t="s" s="2">
         <v>21</v>
@@ -70004,13 +70182,13 @@
         <v>21</v>
       </c>
       <c r="Y626" t="s" s="2">
-        <v>797</v>
+        <v>21</v>
       </c>
       <c r="Z626" t="s" s="2">
-        <v>1161</v>
+        <v>21</v>
       </c>
       <c r="AA626" t="s" s="2">
-        <v>1162</v>
+        <v>21</v>
       </c>
       <c r="AB626" t="s" s="2">
         <v>21</v>
@@ -70028,7 +70206,7 @@
         <v>21</v>
       </c>
       <c r="AG626" t="s" s="2">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="AH626" t="s" s="2">
         <v>80</v>
@@ -70045,13 +70223,13 @@
     </row>
     <row r="627">
       <c r="A627" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="C627" t="s" s="2">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" t="s" s="2">
@@ -70062,7 +70240,7 @@
         <v>73</v>
       </c>
       <c r="H627" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I627" t="s" s="2">
         <v>21</v>
@@ -70071,20 +70249,20 @@
         <v>21</v>
       </c>
       <c r="K627" t="s" s="2">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="L627" t="s" s="2">
-        <v>1062</v>
+        <v>133</v>
       </c>
       <c r="M627" t="s" s="2">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="N627" t="s" s="2">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="O627" s="2"/>
       <c r="P627" t="s" s="2">
-        <v>1166</v>
+        <v>1140</v>
       </c>
       <c r="Q627" t="s" s="2">
         <v>21</v>
@@ -70133,13 +70311,13 @@
         <v>21</v>
       </c>
       <c r="AG627" t="s" s="2">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="AH627" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AI627" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AJ627" t="s" s="2">
         <v>21</v>
@@ -70150,13 +70328,13 @@
     </row>
     <row r="628">
       <c r="A628" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="C628" t="s" s="2">
-        <v>1167</v>
+        <v>1160</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" t="s" s="2">
@@ -70179,20 +70357,16 @@
         <v>21</v>
       </c>
       <c r="L628" t="s" s="2">
-        <v>750</v>
+        <v>138</v>
       </c>
       <c r="M628" t="s" s="2">
-        <v>1168</v>
+        <v>139</v>
       </c>
       <c r="N628" t="s" s="2">
-        <v>1169</v>
-      </c>
-      <c r="O628" t="s" s="2">
-        <v>1170</v>
-      </c>
-      <c r="P628" t="s" s="2">
-        <v>1171</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O628" s="2"/>
+      <c r="P628" s="2"/>
       <c r="Q628" t="s" s="2">
         <v>21</v>
       </c>
@@ -70240,7 +70414,7 @@
         <v>21</v>
       </c>
       <c r="AG628" t="s" s="2">
-        <v>1167</v>
+        <v>141</v>
       </c>
       <c r="AH628" t="s" s="2">
         <v>73</v>
@@ -70252,22 +70426,22 @@
         <v>21</v>
       </c>
       <c r="AK628" t="s" s="2">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="s" s="2">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>1172</v>
+        <v>1161</v>
       </c>
       <c r="C629" t="s" s="2">
-        <v>1172</v>
+        <v>1161</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" t="s" s="2">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="F629" s="2"/>
       <c r="G629" t="s" s="2">
@@ -70286,18 +70460,18 @@
         <v>21</v>
       </c>
       <c r="L629" t="s" s="2">
-        <v>1173</v>
+        <v>144</v>
       </c>
       <c r="M629" t="s" s="2">
-        <v>1174</v>
+        <v>145</v>
       </c>
       <c r="N629" t="s" s="2">
-        <v>1175</v>
-      </c>
-      <c r="O629" s="2"/>
-      <c r="P629" t="s" s="2">
-        <v>1176</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O629" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="P629" s="2"/>
       <c r="Q629" t="s" s="2">
         <v>21</v>
       </c>
@@ -70345,7 +70519,7 @@
         <v>21</v>
       </c>
       <c r="AG629" t="s" s="2">
-        <v>1172</v>
+        <v>148</v>
       </c>
       <c r="AH629" t="s" s="2">
         <v>73</v>
@@ -70357,6 +70531,535 @@
         <v>21</v>
       </c>
       <c r="AK629" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="B630" t="s" s="2">
+        <v>1162</v>
+      </c>
+      <c r="C630" t="s" s="2">
+        <v>1162</v>
+      </c>
+      <c r="D630" s="2"/>
+      <c r="E630" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="F630" s="2"/>
+      <c r="G630" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H630" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I630" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J630" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K630" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L630" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M630" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N630" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O630" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="P630" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Q630" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R630" s="2"/>
+      <c r="S630" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T630" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U630" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V630" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W630" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X630" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y630" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z630" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA630" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB630" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC630" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD630" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE630" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF630" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG630" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AH630" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI630" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ630" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK630" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="B631" t="s" s="2">
+        <v>1163</v>
+      </c>
+      <c r="C631" t="s" s="2">
+        <v>1163</v>
+      </c>
+      <c r="D631" s="2"/>
+      <c r="E631" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F631" s="2"/>
+      <c r="G631" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H631" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I631" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J631" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K631" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L631" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="M631" t="s" s="2">
+        <v>1164</v>
+      </c>
+      <c r="N631" t="s" s="2">
+        <v>1165</v>
+      </c>
+      <c r="O631" s="2"/>
+      <c r="P631" t="s" s="2">
+        <v>1166</v>
+      </c>
+      <c r="Q631" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R631" s="2"/>
+      <c r="S631" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T631" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U631" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V631" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W631" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X631" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y631" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="Z631" t="s" s="2">
+        <v>1167</v>
+      </c>
+      <c r="AA631" t="s" s="2">
+        <v>1168</v>
+      </c>
+      <c r="AB631" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC631" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD631" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE631" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF631" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG631" t="s" s="2">
+        <v>1163</v>
+      </c>
+      <c r="AH631" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI631" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ631" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK631" t="s" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="B632" t="s" s="2">
+        <v>1169</v>
+      </c>
+      <c r="C632" t="s" s="2">
+        <v>1169</v>
+      </c>
+      <c r="D632" s="2"/>
+      <c r="E632" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F632" s="2"/>
+      <c r="G632" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H632" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I632" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J632" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K632" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L632" t="s" s="2">
+        <v>1068</v>
+      </c>
+      <c r="M632" t="s" s="2">
+        <v>1170</v>
+      </c>
+      <c r="N632" t="s" s="2">
+        <v>1171</v>
+      </c>
+      <c r="O632" s="2"/>
+      <c r="P632" t="s" s="2">
+        <v>1172</v>
+      </c>
+      <c r="Q632" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R632" s="2"/>
+      <c r="S632" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T632" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U632" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V632" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W632" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X632" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y632" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z632" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA632" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB632" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC632" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD632" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE632" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF632" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG632" t="s" s="2">
+        <v>1169</v>
+      </c>
+      <c r="AH632" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI632" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ632" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK632" t="s" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="B633" t="s" s="2">
+        <v>1173</v>
+      </c>
+      <c r="C633" t="s" s="2">
+        <v>1173</v>
+      </c>
+      <c r="D633" s="2"/>
+      <c r="E633" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F633" s="2"/>
+      <c r="G633" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H633" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I633" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J633" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K633" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="L633" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="M633" t="s" s="2">
+        <v>1174</v>
+      </c>
+      <c r="N633" t="s" s="2">
+        <v>1175</v>
+      </c>
+      <c r="O633" t="s" s="2">
+        <v>1176</v>
+      </c>
+      <c r="P633" t="s" s="2">
+        <v>1177</v>
+      </c>
+      <c r="Q633" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R633" s="2"/>
+      <c r="S633" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T633" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U633" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V633" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W633" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X633" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y633" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z633" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA633" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB633" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC633" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD633" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE633" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF633" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG633" t="s" s="2">
+        <v>1173</v>
+      </c>
+      <c r="AH633" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI633" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ633" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK633" t="s" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="B634" t="s" s="2">
+        <v>1178</v>
+      </c>
+      <c r="C634" t="s" s="2">
+        <v>1178</v>
+      </c>
+      <c r="D634" s="2"/>
+      <c r="E634" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F634" s="2"/>
+      <c r="G634" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H634" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I634" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="J634" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="K634" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="L634" t="s" s="2">
+        <v>1179</v>
+      </c>
+      <c r="M634" t="s" s="2">
+        <v>1180</v>
+      </c>
+      <c r="N634" t="s" s="2">
+        <v>1181</v>
+      </c>
+      <c r="O634" s="2"/>
+      <c r="P634" t="s" s="2">
+        <v>1182</v>
+      </c>
+      <c r="Q634" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R634" s="2"/>
+      <c r="S634" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="T634" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="U634" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="V634" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="W634" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="X634" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Y634" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="Z634" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AA634" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB634" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC634" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AD634" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AE634" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AF634" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AG634" t="s" s="2">
+        <v>1178</v>
+      </c>
+      <c r="AH634" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI634" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ634" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AK634" t="s" s="2">
         <v>92</v>
       </c>
     </row>
